--- a/data/hotels_by_city/Houston/Houston_shard_158.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_158.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="762">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d288460-Reviews-Courtyard_Houston_West_University-Houston_Texas.html</t>
   </si>
   <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-West-University.h982518.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2198 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r596789205-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>288460</t>
+  </si>
+  <si>
+    <t>596789205</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Good location; tired property</t>
+  </si>
+  <si>
+    <t>Let me start out by saying, I am loyal to Marriott.  I always prefer a Marriott property if one is available.  This courtyard does not meet the standards set by Marriott.  The staff are friendly and helpful and the lobby looks ok but the rooms are beyond tired.  The carpet felt dirty, the paint was chipping, and the room smelled musty. I will not stay at this property again.  It is centrally located in Houston. Good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Kathy J, General Manager at Courtyard Houston-West University, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Let me start out by saying, I am loyal to Marriott.  I always prefer a Marriott property if one is available.  This courtyard does not meet the standards set by Marriott.  The staff are friendly and helpful and the lobby looks ok but the rooms are beyond tired.  The carpet felt dirty, the paint was chipping, and the room smelled musty. I will not stay at this property again.  It is centrally located in Houston. Good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r591685173-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591685173</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Shy</t>
+  </si>
+  <si>
+    <t>Shy was an excellent server. She was always so polite, friendly and fun. She made our stay with Wellcare feel as if we were at home. I will always choose this hotel because of her, Arnold and Dezmon the drivers because they made sure we was taken care of every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kathy J, General Manager at Courtyard Houston-West University, responded to this reviewResponded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2018</t>
+  </si>
+  <si>
+    <t>Shy was an excellent server. She was always so polite, friendly and fun. She made our stay with Wellcare feel as if we were at home. I will always choose this hotel because of her, Arnold and Dezmon the drivers because they made sure we was taken care of every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r589724566-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589724566</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great location close to Rice and the Medical Center, restaurants on Kirby, and less than 15 minutes to downtown or the Galleria.  Nice gym that was never full. Good breakfast buffet. Rooms are rather typical for a courtyard.   Pretty good weekend rates but the real plus is the location.  Not much to walk to but easy access to I-69.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Kathy J, General Manager at Courtyard Houston-West University, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Great location close to Rice and the Medical Center, restaurants on Kirby, and less than 15 minutes to downtown or the Galleria.  Nice gym that was never full. Good breakfast buffet. Rooms are rather typical for a courtyard.   Pretty good weekend rates but the real plus is the location.  Not much to walk to but easy access to I-69.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r577900961-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577900961</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to the location and price and was pleasantly surprised by the excellent and friendly service that I was given.  Especially by the front desk staff.  Ashanti in particular was very helpful and kind.  They were willing to help out in any way and made me very comfortable during my stay.  If I'm in the area again, I would definitely stay her again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Kathy J, General Manager at Courtyard Houston-West University, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to the location and price and was pleasantly surprised by the excellent and friendly service that I was given.  Especially by the front desk staff.  Ashanti in particular was very helpful and kind.  They were willing to help out in any way and made me very comfortable during my stay.  If I'm in the area again, I would definitely stay her again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r576146510-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576146510</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependable Courtyard but now they charge for parking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a hotel close to some businesses in the Greenway district of Houston.   It’s off a side road, and a dependable comfortable stay.  BUT.   They now decide to charge $6.00 for parking.   Why?  No idea, but they aren’t near any entertainment district,  or sporting facility not walkable to the mega church down the road.    It’s a surface parking lot,  no valet,  and this six dollar charge is ridiculous.   I can’t believe Marriott signed off on this.   Not a good idea. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r571262332-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571262332</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Affordable, well-located hotel near Rice University with great service</t>
+  </si>
+  <si>
+    <t>My family stayed at this Courtyard over Easter weekend while we were visiting family in West University.  The hotel is well located near the main roads and a shopping center with a Walgreens, H-E-B, and other amenities.  It is also with close proximity to a Trader Joe's and Whole Foods if that is more your style.  The hotel is a standard Courtyard.  The lobby is in good condition and seems to have been recently renovated.  The rooms are in decent shape but could use a makeover.  Rooms were quiet with good blackout shades.  There are three features of this hotel that make it better than some of its competition. First, it seems to be the most affordable decent hotel near Rice University.  This is especially true if you have more than 2 people in a room on a family trip.  Second, there is ample and free parking.  This is not true for many Houston area hotels.  Third, and most importantly, the staff is superb.  I would like to especially commend Jay at the Bistro who was funny, polite, and provided excellent service along with his colleagues.  (The Bistro food was delicious, by the way.)I might not stay at this Courtyard for every trip to Houston, but I will certainly come again for a family trip or if I need to be near Rice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Associate at Courtyard Houston-West University, responded to this reviewResponded April 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2018</t>
+  </si>
+  <si>
+    <t>My family stayed at this Courtyard over Easter weekend while we were visiting family in West University.  The hotel is well located near the main roads and a shopping center with a Walgreens, H-E-B, and other amenities.  It is also with close proximity to a Trader Joe's and Whole Foods if that is more your style.  The hotel is a standard Courtyard.  The lobby is in good condition and seems to have been recently renovated.  The rooms are in decent shape but could use a makeover.  Rooms were quiet with good blackout shades.  There are three features of this hotel that make it better than some of its competition. First, it seems to be the most affordable decent hotel near Rice University.  This is especially true if you have more than 2 people in a room on a family trip.  Second, there is ample and free parking.  This is not true for many Houston area hotels.  Third, and most importantly, the staff is superb.  I would like to especially commend Jay at the Bistro who was funny, polite, and provided excellent service along with his colleagues.  (The Bistro food was delicious, by the way.)I might not stay at this Courtyard for every trip to Houston, but I will certainly come again for a family trip or if I need to be near Rice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r563723400-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563723400</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Great Business Hotel</t>
+  </si>
+  <si>
+    <t>This has become my go-to Hotel when in Houston. The location is great: near downtown, Montrose and Rice Univ, in a relatively quiet neighborhood. The rooms are basic but clean and well equipped for working. The WiFi is free and fast. Large screen TV in every room. There is no Restaurant but there is breakfast available from a small shop with Starbuck's coffee. The gym is small but workable and there is beautiful outdoor pool. The staff is fantastic and always friendly and helpful. On my last visit I left my new Kindle in the room; they mailed it to my home with no complaint (thanks Bao). Give this place a try; you will not be disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>This has become my go-to Hotel when in Houston. The location is great: near downtown, Montrose and Rice Univ, in a relatively quiet neighborhood. The rooms are basic but clean and well equipped for working. The WiFi is free and fast. Large screen TV in every room. There is no Restaurant but there is breakfast available from a small shop with Starbuck's coffee. The gym is small but workable and there is beautiful outdoor pool. The staff is fantastic and always friendly and helpful. On my last visit I left my new Kindle in the room; they mailed it to my home with no complaint (thanks Bao). Give this place a try; you will not be disappointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r563133944-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563133944</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, conveniently located to Rice University, food, shopping</t>
+  </si>
+  <si>
+    <t>Stayed here recently and was very pleased with the hotel.   our daughter was especially pleased with the smart TV so she could watch her favorite Netflix shows.  :)    Fitness room is pretty limited, but adequate if you want a treadmill.    Food service was typical of courtyard, but service was very quick and friendly.   Using surface streets, very close to River Oaks shopping and Galleria so within 10 minutes of anything retail or food wise you might want.   Will stay here again.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r563017726-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563017726</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Needs a remodel</t>
+  </si>
+  <si>
+    <t>I like Courtyards for quick over-night stays because I usually know what to expect. This one was not up to my expectations, despite its convenient location. The carpet in the room was stained and dirty. The showerhead was pulling out of the wall. The beds were hard and very noisy when we moved  - even an inch! The bar didn't have Chardonnay. With a little attention and care, it could rise to acceptable levels. Until that happens, I won't stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r549310103-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549310103</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Great location and staff</t>
+  </si>
+  <si>
+    <t>This was the first time i was away from home for the holidays! This hotel made my stay right at home. Staff was great especially Jay..his hospitality was over the top. Everything was close by and front Desk was very kind as well. Highly recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>This was the first time i was away from home for the holidays! This hotel made my stay right at home. Staff was great especially Jay..his hospitality was over the top. Everything was close by and front Desk was very kind as well. Highly recommend staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r545700877-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545700877</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Friendly service and consistency</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for a third time, for a business trip.  I chose this property for it's good rates, comfortable guest rooms, and super friendly staff.  It is the people who work at this hotel that truly make the difference, and it's nice to come back and see the same faces again.  Every time I walk by the Front Desk (even if I'm not stopping), I am greeted like an old friend.The rooms are probably ready for a bit of modernization, however they are more than adequate, clean, and the beds are very comfortable.  The AC unit a bit loud for running through the night, but fortunately the room was never too warm.The chat feature on the Marriott app is also very handy.  You can speak with someone directly at the hotel to ask any questions or make any requests.Free parking at this property is also a plus, given that several other hotels in the vicinity charge for parking.I will definitely stay here again for my next trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for a third time, for a business trip.  I chose this property for it's good rates, comfortable guest rooms, and super friendly staff.  It is the people who work at this hotel that truly make the difference, and it's nice to come back and see the same faces again.  Every time I walk by the Front Desk (even if I'm not stopping), I am greeted like an old friend.The rooms are probably ready for a bit of modernization, however they are more than adequate, clean, and the beds are very comfortable.  The AC unit a bit loud for running through the night, but fortunately the room was never too warm.The chat feature on the Marriott app is also very handy.  You can speak with someone directly at the hotel to ask any questions or make any requests.Free parking at this property is also a plus, given that several other hotels in the vicinity charge for parking.I will definitely stay here again for my next trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r541425217-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541425217</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Quiet in the Midst of Activity</t>
+  </si>
+  <si>
+    <t>This location is in a very busy part of town, but once inside, it is quiet and relaxing.  My spacious king room was located immediately behind the elevator, but I never heard the "ding" unless I was standing right beside my door.  The Bistro was good for a light meal at the end of a hectic work day, and the breakfast was adequate.  I will definitely stay there again when I return to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>This location is in a very busy part of town, but once inside, it is quiet and relaxing.  My spacious king room was located immediately behind the elevator, but I never heard the "ding" unless I was standing right beside my door.  The Bistro was good for a light meal at the end of a hectic work day, and the breakfast was adequate.  I will definitely stay there again when I return to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r516883152-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516883152</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>The hotel is located close to shopping and plenty of food places. Very convenient to the highway 59. The lobby has been very nicely updated and they have a full bar. I think this is a great spot for the business traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is located close to shopping and plenty of food places. Very convenient to the highway 59. The lobby has been very nicely updated and they have a full bar. I think this is a great spot for the business traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r514785296-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514785296</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for business travel</t>
+  </si>
+  <si>
+    <t>I've stayed at this Courtyard many times over the past 2 years, always for business travel. The staff has always been friendly, polite, and respectful of my time. The rooms have always been clean and quiet. I've consistently had a great experience at this hotel and it will continue to be my #1 hotel for business travel while in Houston.The location of the hotel is fantastic - very close to major freeways, shopping centers, restaurants, and office buildings.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded August 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at this Courtyard many times over the past 2 years, always for business travel. The staff has always been friendly, polite, and respectful of my time. The rooms have always been clean and quiet. I've consistently had a great experience at this hotel and it will continue to be my #1 hotel for business travel while in Houston.The location of the hotel is fantastic - very close to major freeways, shopping centers, restaurants, and office buildings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r513190348-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513190348</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Undergoing renovation, but expect good things</t>
+  </si>
+  <si>
+    <t>The location isn't bad - minutes from the freeways is important if you are in Houston. There are a bunch of restaurants and malls within a block or two if you decide to walk. The rooms are well maintained and clean. The service was always respectful and welcoming. They don't have included breakfast, but do have a cafe open at all times. A great place to stay, especially once the renovation is complete.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>The location isn't bad - minutes from the freeways is important if you are in Houston. There are a bunch of restaurants and malls within a block or two if you decide to walk. The rooms are well maintained and clean. The service was always respectful and welcoming. They don't have included breakfast, but do have a cafe open at all times. A great place to stay, especially once the renovation is complete.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r506479134-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506479134</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Review and Summary for ADA persons</t>
+  </si>
+  <si>
+    <t>I will review the property based on ADA features based on my experience traveling with my elderly mobility impaired father. As usual, weight of the doors to rooms is always a problem.Ideally we prefer to stay on the 1st for fire safety (we were provided a 2nd floor room) - I guess we would have rolled him down the steps in case of fire :) - do designers ever consider fire hazards?)The hotel was able to reserve and confirm an ADA complaint bedroom and bath with a connecting room for my family.  The bath was true to ADA compliance complete with handle bars near toilet and shower, phone near toilet, raised base sink for wheelchair accommodation (although sink was a little high- should have been a few inches lower) and a very sturdy shower chair was provided for the tub/shower area. Space around the bed is adequate and closet shelving and bars are lowered.Social areas of the hotel are nice and wide. The pool area had a lift both on the pool and the hot tub.The parking and ramps were ample with spaces at all times.This hotel is in a great location and is very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>I will review the property based on ADA features based on my experience traveling with my elderly mobility impaired father. As usual, weight of the doors to rooms is always a problem.Ideally we prefer to stay on the 1st for fire safety (we were provided a 2nd floor room) - I guess we would have rolled him down the steps in case of fire :) - do designers ever consider fire hazards?)The hotel was able to reserve and confirm an ADA complaint bedroom and bath with a connecting room for my family.  The bath was true to ADA compliance complete with handle bars near toilet and shower, phone near toilet, raised base sink for wheelchair accommodation (although sink was a little high- should have been a few inches lower) and a very sturdy shower chair was provided for the tub/shower area. Space around the bed is adequate and closet shelving and bars are lowered.Social areas of the hotel are nice and wide. The pool area had a lift both on the pool and the hot tub.The parking and ramps were ample with spaces at all times.This hotel is in a great location and is very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r503676546-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503676546</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>$8.00 Uber ride from this property to the Galleria Mall.  The guest room is nice and clean, but nothing special.  They do have a curtesy shuttle service.  It's every hour on the hour; first come; first and serve within 3 miles radius.  Nothing special for this Marriott product.  MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Supervisor at Courtyard Houston-West University, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>$8.00 Uber ride from this property to the Galleria Mall.  The guest room is nice and clean, but nothing special.  They do have a curtesy shuttle service.  It's every hour on the hour; first come; first and serve within 3 miles radius.  Nothing special for this Marriott product.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r491550958-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491550958</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>BBQ Cook-off location is great with shuttle service</t>
+  </si>
+  <si>
+    <t>Room was clean and shuttle service was great to BBQ cookoff.  I always know what to expect with Courtyard.  It met all our needs and desk clerks were friendly.  Check in was easy.  Parking was tight, since so many were in town for the cook-off.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and shuttle service was great to BBQ cookoff.  I always know what to expect with Courtyard.  It met all our needs and desk clerks were friendly.  Check in was easy.  Parking was tight, since so many were in town for the cook-off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r482199176-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482199176</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>The staff is awesome</t>
+  </si>
+  <si>
+    <t>Everyone here has been so nice, welcoming and helpful. I'd like to acknowledge Jamie H. for a wonderful hello every time I come into the hotel, and she remembered my name! Thanks for everything.here's some extra letters to give you your word countMoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Everyone here has been so nice, welcoming and helpful. I'd like to acknowledge Jamie H. for a wonderful hello every time I come into the hotel, and she remembered my name! Thanks for everything.here's some extra letters to give you your word countMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r480855133-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480855133</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>OTC 2017</t>
+  </si>
+  <si>
+    <t>Outstanding service and prompt check-in by Jamie on 30 April 2017.  I stay here on a regular basis and always find the service to be exemplary.  Jamie takes it to a higher level by remembering my name and having the best room on the ground floor always available for me.  Thanks and much appreciated!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent  at Courtyard Houston-West University, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Outstanding service and prompt check-in by Jamie on 30 April 2017.  I stay here on a regular basis and always find the service to be exemplary.  Jamie takes it to a higher level by remembering my name and having the best room on the ground floor always available for me.  Thanks and much appreciated!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r473716640-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473716640</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Bistro!!!!</t>
+  </si>
+  <si>
+    <t>The bistro was very nice and the atmosphere was relaxing . The young lady i believe her name was Ashley, she was very courteous and BUSY, but she still managed to deliver my food in a timely manner .this is my favorite courtyard!MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>The bistro was very nice and the atmosphere was relaxing . The young lady i believe her name was Ashley, she was very courteous and BUSY, but she still managed to deliver my food in a timely manner .this is my favorite courtyard!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r467312216-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467312216</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Noisy neighbors, but no solution</t>
+  </si>
+  <si>
+    <t>Booked this stay on Saturday night for my sone and his two small children with Marriott points. Unfortunately he had to call front desk twice to try to get some resolution to the noisy neighbors that kept him awake most of the night.  It seems they do not have a way of dealing with this nor did they offer any possibility to changing to another room.We have stayed here in the past, but I think this is the last time.  Even when he checked out no apologies or any type of compensation.  Oh well, live and learn that some properties are better than others and being a loyal  Marriott customer doesn't mean so much anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Booked this stay on Saturday night for my sone and his two small children with Marriott points. Unfortunately he had to call front desk twice to try to get some resolution to the noisy neighbors that kept him awake most of the night.  It seems they do not have a way of dealing with this nor did they offer any possibility to changing to another room.We have stayed here in the past, but I think this is the last time.  Even when he checked out no apologies or any type of compensation.  Oh well, live and learn that some properties are better than others and being a loyal  Marriott customer doesn't mean so much anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r460916186-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460916186</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Customer Service Review</t>
+  </si>
+  <si>
+    <t>Each time I check in, I thoroughly check the mattress and linen. All was very clean and tidy. The bathroom sink on the other hand had a few long strands of hair. That was pretty gross. But that is my only complaint.  Jay works at the Bistro-Starbucks and is an asset to the facility. Service with a smile and such a kind spirited person. I observed him with various customers and he treated everyone equally. Great customer skills and service!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Each time I check in, I thoroughly check the mattress and linen. All was very clean and tidy. The bathroom sink on the other hand had a few long strands of hair. That was pretty gross. But that is my only complaint.  Jay works at the Bistro-Starbucks and is an asset to the facility. Service with a smile and such a kind spirited person. I observed him with various customers and he treated everyone equally. Great customer skills and service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r459027438-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459027438</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>Stayed at this property for over 5 days and had the most comfortable stay. The staff was extremely friendly, from check in, mornings and returns, always greeted with a smile or a hello from the staff. Room was clean and spacious, if you need a fridge, you got to call it in when you get to your room. I was able to use the microwave that they have in the lobby/food market area to warm up my left overs and the staff was friendly enough to make sure I knew how to use it. The pool and work out area is nice and clean and easily accessible for work outs and just time to unwind in the hot tub. The starbucks coffee and breakfast options are great for those who dont like to venture too far to get caffeine. Jay the morning coffee barista, made the best vanilla latte ever, make sure you have him make you a drink, if you like things anything more complicated than black coffee. The business center was also a great perk to be able to print out boarding passes for plane tickets, which was a service that I used and enjoyed. Overall a great experience and the staff was part of it. Also, they hosted a super bowl party for the crew that was staying at the hotel, such a sweet gesture of the staff. Great place to stay, central to lots of places...Stayed at this property for over 5 days and had the most comfortable stay. The staff was extremely friendly, from check in, mornings and returns, always greeted with a smile or a hello from the staff. Room was clean and spacious, if you need a fridge, you got to call it in when you get to your room. I was able to use the microwave that they have in the lobby/food market area to warm up my left overs and the staff was friendly enough to make sure I knew how to use it. The pool and work out area is nice and clean and easily accessible for work outs and just time to unwind in the hot tub. The starbucks coffee and breakfast options are great for those who dont like to venture too far to get caffeine. Jay the morning coffee barista, made the best vanilla latte ever, make sure you have him make you a drink, if you like things anything more complicated than black coffee. The business center was also a great perk to be able to print out boarding passes for plane tickets, which was a service that I used and enjoyed. Overall a great experience and the staff was part of it. Also, they hosted a super bowl party for the crew that was staying at the hotel, such a sweet gesture of the staff. Great place to stay, central to lots of places even walking distances.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this property for over 5 days and had the most comfortable stay. The staff was extremely friendly, from check in, mornings and returns, always greeted with a smile or a hello from the staff. Room was clean and spacious, if you need a fridge, you got to call it in when you get to your room. I was able to use the microwave that they have in the lobby/food market area to warm up my left overs and the staff was friendly enough to make sure I knew how to use it. The pool and work out area is nice and clean and easily accessible for work outs and just time to unwind in the hot tub. The starbucks coffee and breakfast options are great for those who dont like to venture too far to get caffeine. Jay the morning coffee barista, made the best vanilla latte ever, make sure you have him make you a drink, if you like things anything more complicated than black coffee. The business center was also a great perk to be able to print out boarding passes for plane tickets, which was a service that I used and enjoyed. Overall a great experience and the staff was part of it. Also, they hosted a super bowl party for the crew that was staying at the hotel, such a sweet gesture of the staff. Great place to stay, central to lots of places...Stayed at this property for over 5 days and had the most comfortable stay. The staff was extremely friendly, from check in, mornings and returns, always greeted with a smile or a hello from the staff. Room was clean and spacious, if you need a fridge, you got to call it in when you get to your room. I was able to use the microwave that they have in the lobby/food market area to warm up my left overs and the staff was friendly enough to make sure I knew how to use it. The pool and work out area is nice and clean and easily accessible for work outs and just time to unwind in the hot tub. The starbucks coffee and breakfast options are great for those who dont like to venture too far to get caffeine. Jay the morning coffee barista, made the best vanilla latte ever, make sure you have him make you a drink, if you like things anything more complicated than black coffee. The business center was also a great perk to be able to print out boarding passes for plane tickets, which was a service that I used and enjoyed. Overall a great experience and the staff was part of it. Also, they hosted a super bowl party for the crew that was staying at the hotel, such a sweet gesture of the staff. Great place to stay, central to lots of places even walking distances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r440471945-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440471945</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Family wedding</t>
+  </si>
+  <si>
+    <t>Upon arrival I immediately noticed the beautifully maintained property. Lobby newly decorated with clean pretty modern appeal. Curved booths with individual televisions in lobby area. Group room with large tv and spacious seating for football ( if your a fan) watching. Pool area beautiful with clean seating. Food and Starbucks at breakfast/ dinner counter above my expectations. Staffing 5 star. All the way around-  night desk - breakfast crew and maintenance dept ( blew a gfi) repaired immediately !!! Would recommend and stay anytime in Houston. Close to everything within walking distance to a Starbucks CVS and many other stores. FRIENDLY STAFFING !! Fabulous managerMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival I immediately noticed the beautifully maintained property. Lobby newly decorated with clean pretty modern appeal. Curved booths with individual televisions in lobby area. Group room with large tv and spacious seating for football ( if your a fan) watching. Pool area beautiful with clean seating. Food and Starbucks at breakfast/ dinner counter above my expectations. Staffing 5 star. All the way around-  night desk - breakfast crew and maintenance dept ( blew a gfi) repaired immediately !!! Would recommend and stay anytime in Houston. Close to everything within walking distance to a Starbucks CVS and many other stores. FRIENDLY STAFFING !! Fabulous managerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r439756721-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439756721</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Very average.</t>
+  </si>
+  <si>
+    <t>Customer service here is great!  Otherwise, this hotel is quite average, if not worse.  The room was not very clean and was very out of date in its decor and amenities.  The ice machine was completely broken on my floor (I wasn't told about this upon check-in) and had to search for another one.  The pool area was pretty disgusting.  I purposely chose this hotel for the outdoor, heated pool.  The pool was not heated and was covered in a disgusting film or dirt and scum; I doubt it had been cleaned recently.  The jacuzzi was okay, but had concrete breaking lose.Tbe location is pretty good and the rate was okay, but I wouldn't stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Office Manager at Courtyard Houston-West University, responded to this reviewResponded November 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2016</t>
+  </si>
+  <si>
+    <t>Customer service here is great!  Otherwise, this hotel is quite average, if not worse.  The room was not very clean and was very out of date in its decor and amenities.  The ice machine was completely broken on my floor (I wasn't told about this upon check-in) and had to search for another one.  The pool area was pretty disgusting.  I purposely chose this hotel for the outdoor, heated pool.  The pool was not heated and was covered in a disgusting film or dirt and scum; I doubt it had been cleaned recently.  The jacuzzi was okay, but had concrete breaking lose.Tbe location is pretty good and the rate was okay, but I wouldn't stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r437270746-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437270746</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Great for business</t>
+  </si>
+  <si>
+    <t>I generally like Marriott and that is why I chose this one.  It did not disappoint.  My wife could run from the location and it had a nice cafe.  The service was a bit slow, but we were in no rush.  Close to any stores you might need.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>I generally like Marriott and that is why I chose this one.  It did not disappoint.  My wife could run from the location and it had a nice cafe.  The service was a bit slow, but we were in no rush.  Close to any stores you might need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r432253147-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432253147</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Business travel - Always stay here</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel in all of Houston area. Lots of restaurants, services, entertainment nearThe people are the best part though. Meg, Caymon, Marcus, Jasmine, and even Jon (!) take great care.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded October 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2016</t>
+  </si>
+  <si>
+    <t>This is my favorite hotel in all of Houston area. Lots of restaurants, services, entertainment nearThe people are the best part though. Meg, Caymon, Marcus, Jasmine, and even Jon (!) take great care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r421181631-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421181631</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Clean hotel, great staff</t>
+  </si>
+  <si>
+    <t>My room was clean and comfortable. They were very accommodating given that we arrived before check-in time. The staff was friendly and excellent with all our requests. Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Manager at Courtyard Houston-West University, responded to this reviewResponded September 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2016</t>
+  </si>
+  <si>
+    <t>My room was clean and comfortable. They were very accommodating given that we arrived before check-in time. The staff was friendly and excellent with all our requests. Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r419484510-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419484510</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Went from Best to Jest!</t>
+  </si>
+  <si>
+    <t>Last time I reviewed this hotel, it was my preferred stop in this part of the city. Now, I'm going to have to reshuffle my preferences to see what I can do.
+Marriott and Courtyard are my typical "go to" hotel during work travel and personal travel because I've found the quality to be most consistent across the board. This one did not meet my expectations. 
+So what's good? 
+The staff! The public spaces, the appearance of the rooms, and the upgrade of the rooms. This is an original style courtyard that actually has a courtyard in the middle, and it has been upgraded.
+What's bad? The AC systems and the problems that come with it. I had a team of coworkers staying with me at this hotel this week. My first room had an air conditioner so loud that I immediately went to the front desk to ask for a different room. This was granted with apology, so I moved.
+The next room did not smell fresh, but I assumed it wasn't planned to be used that day, I moved, and that housekeeping would refresh it on the first cleaning. This was wrong. The new room had a quiet AC system, but it had a terrible moldy/musty smell that did not go away during the week. I arrived on Monday, expecting it would be resolved by housekeeping Tuesday. In other upgraded properties, this is the normal case, and a...Last time I reviewed this hotel, it was my preferred stop in this part of the city. Now, I'm going to have to reshuffle my preferences to see what I can do.Marriott and Courtyard are my typical "go to" hotel during work travel and personal travel because I've found the quality to be most consistent across the board. This one did not meet my expectations. So what's good? The staff! The public spaces, the appearance of the rooms, and the upgrade of the rooms. This is an original style courtyard that actually has a courtyard in the middle, and it has been upgraded.What's bad? The AC systems and the problems that come with it. I had a team of coworkers staying with me at this hotel this week. My first room had an air conditioner so loud that I immediately went to the front desk to ask for a different room. This was granted with apology, so I moved.The next room did not smell fresh, but I assumed it wasn't planned to be used that day, I moved, and that housekeeping would refresh it on the first cleaning. This was wrong. The new room had a quiet AC system, but it had a terrible moldy/musty smell that did not go away during the week. I arrived on Monday, expecting it would be resolved by housekeeping Tuesday. In other upgraded properties, this is the normal case, and a decent amount of fragrance is used in Courtyard upgrade rooms-- one that comes to mind is the Courtyard in Princeton, NJ. Day 2 came and went, and I started hearing similar stories from my coworkers. Their AC wouldn't "kick on" if they left the fan in "constantly on" mode, and other stories. I could have asked to be moved again, but hearing so many stories from coworkers I decided to stay. I bought a bottle of Lysol NeutraAir at the local CVS. This was the wrong decision.  Three treatments per day and the room still had the funky smell. In retrospect I should have moved. So fault on me, I could/should have tried to move again, but I was working long days leaving before 7 and coming back after 7 at night. I did not give the property a second chance to re-accommodate me, and I don't blame them for that. But I won't be staying here again unless I hear that they've done a replacement or overhaul of the AC units. To their credit, they went above &amp; beyond to recognize me as a Platinum customer of Marriott, staying more than 30 nights this year already, even leaving a customized card in my room (my first room).  That being said, the property owner really needs to get a handle on what I consider to be an AC "situation".MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Guest Service Agent at Courtyard Houston-West University, responded to this reviewResponded September 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2016</t>
+  </si>
+  <si>
+    <t>Last time I reviewed this hotel, it was my preferred stop in this part of the city. Now, I'm going to have to reshuffle my preferences to see what I can do.
+Marriott and Courtyard are my typical "go to" hotel during work travel and personal travel because I've found the quality to be most consistent across the board. This one did not meet my expectations. 
+So what's good? 
+The staff! The public spaces, the appearance of the rooms, and the upgrade of the rooms. This is an original style courtyard that actually has a courtyard in the middle, and it has been upgraded.
+What's bad? The AC systems and the problems that come with it. I had a team of coworkers staying with me at this hotel this week. My first room had an air conditioner so loud that I immediately went to the front desk to ask for a different room. This was granted with apology, so I moved.
+The next room did not smell fresh, but I assumed it wasn't planned to be used that day, I moved, and that housekeeping would refresh it on the first cleaning. This was wrong. The new room had a quiet AC system, but it had a terrible moldy/musty smell that did not go away during the week. I arrived on Monday, expecting it would be resolved by housekeeping Tuesday. In other upgraded properties, this is the normal case, and a...Last time I reviewed this hotel, it was my preferred stop in this part of the city. Now, I'm going to have to reshuffle my preferences to see what I can do.Marriott and Courtyard are my typical "go to" hotel during work travel and personal travel because I've found the quality to be most consistent across the board. This one did not meet my expectations. So what's good? The staff! The public spaces, the appearance of the rooms, and the upgrade of the rooms. This is an original style courtyard that actually has a courtyard in the middle, and it has been upgraded.What's bad? The AC systems and the problems that come with it. I had a team of coworkers staying with me at this hotel this week. My first room had an air conditioner so loud that I immediately went to the front desk to ask for a different room. This was granted with apology, so I moved.The next room did not smell fresh, but I assumed it wasn't planned to be used that day, I moved, and that housekeeping would refresh it on the first cleaning. This was wrong. The new room had a quiet AC system, but it had a terrible moldy/musty smell that did not go away during the week. I arrived on Monday, expecting it would be resolved by housekeeping Tuesday. In other upgraded properties, this is the normal case, and a decent amount of fragrance is used in Courtyard upgrade rooms-- one that comes to mind is the Courtyard in Princeton, NJ. Day 2 came and went, and I started hearing similar stories from my coworkers. Their AC wouldn't "kick on" if they left the fan in "constantly on" mode, and other stories. I could have asked to be moved again, but hearing so many stories from coworkers I decided to stay. I bought a bottle of Lysol NeutraAir at the local CVS. This was the wrong decision.  Three treatments per day and the room still had the funky smell. In retrospect I should have moved. So fault on me, I could/should have tried to move again, but I was working long days leaving before 7 and coming back after 7 at night. I did not give the property a second chance to re-accommodate me, and I don't blame them for that. But I won't be staying here again unless I hear that they've done a replacement or overhaul of the AC units. To their credit, they went above &amp; beyond to recognize me as a Platinum customer of Marriott, staying more than 30 nights this year already, even leaving a customized card in my room (my first room).  That being said, the property owner really needs to get a handle on what I consider to be an AC "situation".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r415756866-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415756866</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>BUSINESS PERFECT &amp; GOOD FOR ALL</t>
+  </si>
+  <si>
+    <t>My stay was excellent. The front end staff could not have been nicer, and check in was a breeze. I found it amazing that everybody remembered my name and addressed me with that during my stay. As busy as these folks are, that was really a nice gesture. My room was spacious and comfortable. The property was as clean as can be and I felt safe. I enjoyed the shaded seating area by the pool with a few ceiling fans going, that particular spot was a joy and allowed me to conduct business comfortably after hours. There were really nice restaurants in close proximity that went beyond serving the purpose namely Goode Seafood ( dine in a railroad car) or Guad which was the best Tex Mex I ever had. The Courtyard staff including maintenance, shuttle drivers, Bistro, were quite friendly, always smiling and helpful. This sort of attitude comes from the top , so kudos to management for having the right people in the right place. I will look forward to my next trip to Houston as I certainly will return to this property. These folks did an outstanding job and it is much appreciated. Not easy being away from home so much as a traveling salesperson, but I did feel right at home here.Thank You,Mitch K.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Manager at Courtyard Houston-West University, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>My stay was excellent. The front end staff could not have been nicer, and check in was a breeze. I found it amazing that everybody remembered my name and addressed me with that during my stay. As busy as these folks are, that was really a nice gesture. My room was spacious and comfortable. The property was as clean as can be and I felt safe. I enjoyed the shaded seating area by the pool with a few ceiling fans going, that particular spot was a joy and allowed me to conduct business comfortably after hours. There were really nice restaurants in close proximity that went beyond serving the purpose namely Goode Seafood ( dine in a railroad car) or Guad which was the best Tex Mex I ever had. The Courtyard staff including maintenance, shuttle drivers, Bistro, were quite friendly, always smiling and helpful. This sort of attitude comes from the top , so kudos to management for having the right people in the right place. I will look forward to my next trip to Houston as I certainly will return to this property. These folks did an outstanding job and it is much appreciated. Not easy being away from home so much as a traveling salesperson, but I did feel right at home here.Thank You,Mitch K.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r415054169-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415054169</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Review of recent stay at this property</t>
+  </si>
+  <si>
+    <t>My experience at this property was absolutely excellent.  I live nearby and had the unfortunate experience of having my place burn down, where I lost nearly everything.  I stayed at this property for almost two weeks while mentally recovering and looking for a new place to live.The staff here was so kind, courteous, and helpful.....it brought me to tears almost daily.  The hugs, the prayers, the warmth, and consideration is like nothing I have experienced before and I was truly grateful.  The services were great that I utilized, and breakfast each morning was delicious and enough to feed an army :)  The pool, gym, laundry, and business center were the services I utilized and the property and amenities were great and I was not in need of a thing.The property also is very well located between Kirby and Buffalo Speedway, close to shopping, dining, and the 59 freeway.  They will always have my gratitude and I would highly recommend this property to anybody.Signed,A very grateful customer :)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Manager at Courtyard Houston-West University, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>My experience at this property was absolutely excellent.  I live nearby and had the unfortunate experience of having my place burn down, where I lost nearly everything.  I stayed at this property for almost two weeks while mentally recovering and looking for a new place to live.The staff here was so kind, courteous, and helpful.....it brought me to tears almost daily.  The hugs, the prayers, the warmth, and consideration is like nothing I have experienced before and I was truly grateful.  The services were great that I utilized, and breakfast each morning was delicious and enough to feed an army :)  The pool, gym, laundry, and business center were the services I utilized and the property and amenities were great and I was not in need of a thing.The property also is very well located between Kirby and Buffalo Speedway, close to shopping, dining, and the 59 freeway.  They will always have my gratitude and I would highly recommend this property to anybody.Signed,A very grateful customer :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r414981760-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414981760</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>We had a great stay. Check-in/ check out was smooth, our room was clean and the staff was friendly and helpful. We had a team breakfast and the staff kept everything stocked as quickly as possible. We ate at the hotel restaurant (the Bistro) and we arrived right before closing and we appreciate them staying a little over to accommodate us. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great stay. Check-in/ check out was smooth, our room was clean and the staff was friendly and helpful. We had a team breakfast and the staff kept everything stocked as quickly as possible. We ate at the hotel restaurant (the Bistro) and we arrived right before closing and we appreciate them staying a little over to accommodate us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r407278451-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407278451</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>All about the service!</t>
+  </si>
+  <si>
+    <t>Friendly reception upon checking in and advising me that my profile requests of extra towels had been fulfilled for my room.  The rooms are adequate and do need updating but they are clean and large.  Megan was the highlight of the trip.  She seemed to always working either the front desk or the cafe.  Megan has a great attitude!  Always with a smile and asking how my day was going.  I heard a guest being rude to Megan and she never wavered from keeping a smile on her face!  The location is great being close to Rice Village, Greenway Plaza, 15 minutes from downtown.  Shuttle service is available within in a 3 mile radius and once a day to the Galleria.  Nice plaza with a Kroger, Kenny &amp; Ziggys and other less than a half mile away.  A good Mexican restaurant and Olive Garden are walking distance across from hotel.All around good experience and great location for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Manager at Courtyard Houston-West University, responded to this reviewResponded August 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2016</t>
+  </si>
+  <si>
+    <t>Friendly reception upon checking in and advising me that my profile requests of extra towels had been fulfilled for my room.  The rooms are adequate and do need updating but they are clean and large.  Megan was the highlight of the trip.  She seemed to always working either the front desk or the cafe.  Megan has a great attitude!  Always with a smile and asking how my day was going.  I heard a guest being rude to Megan and she never wavered from keeping a smile on her face!  The location is great being close to Rice Village, Greenway Plaza, 15 minutes from downtown.  Shuttle service is available within in a 3 mile radius and once a day to the Galleria.  Nice plaza with a Kroger, Kenny &amp; Ziggys and other less than a half mile away.  A good Mexican restaurant and Olive Garden are walking distance across from hotel.All around good experience and great location for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r406263271-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406263271</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Superior Service</t>
+  </si>
+  <si>
+    <t>Jay at the Cafe is such a wonderful person!  He is so energetic and provides superior customer service when getting morning breakfast especially when there are specific details of need for food restrictions.  It makes a day so much better when you get a smile and customer service that is 110%.  Thank you for having such a valuable employee!MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Manager at Courtyard Houston-West University, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Jay at the Cafe is such a wonderful person!  He is so energetic and provides superior customer service when getting morning breakfast especially when there are specific details of need for food restrictions.  It makes a day so much better when you get a smile and customer service that is 110%.  Thank you for having such a valuable employee!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r391494235-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391494235</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>GUEST ROOMS IN DESPERATE NEED OF AN UPDATE!!!</t>
+  </si>
+  <si>
+    <t>We decided to stay in this location to be close to Memorial Park without having to stay in The Galleria area hotels and pay for outrageous parking fees.  The front desk personnel were nice, polite and very helpful!! The lobby area is remodeled and very nice but they stopped short of remodeling the rooms. The rooms had a funny mildew smell from the AC unit and the old decor of the Courtyard rooms.  The towels seemed super used and not nice and fluffy!  I was surprised how they really just did not clean our room with our 2 night stay.  I had no energy to complain but with all the other options in town better to stay somewhere else until rooms are renovated.  There are other NICE choices for places to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front desk agent at Courtyard Houston-West University, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>We decided to stay in this location to be close to Memorial Park without having to stay in The Galleria area hotels and pay for outrageous parking fees.  The front desk personnel were nice, polite and very helpful!! The lobby area is remodeled and very nice but they stopped short of remodeling the rooms. The rooms had a funny mildew smell from the AC unit and the old decor of the Courtyard rooms.  The towels seemed super used and not nice and fluffy!  I was surprised how they really just did not clean our room with our 2 night stay.  I had no energy to complain but with all the other options in town better to stay somewhere else until rooms are renovated.  There are other NICE choices for places to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r386713114-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386713114</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and usually stay at the nicer hotels so I don't have to worry about reading reviews, to see if they're good or not in certain locations.  However I'm going to start reading reviews a lot more. To start off I just about passed this location because it's in the middle of an industrial park and didn't look like a good part of Houston. The staff was very friendly and courteous and took care of all my needs. However the king-size room I had, looked outdated and needed some maintenance repairs as you can see on the pictures attached.  For paying $150 a night and not having a free cocktail hour or free breakfast in the morning it left me a little disappointed. I will stay elsewhere when I visit Houston again.  Safe travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, Front Desk Agent at Courtyard Houston-West University, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>I travel quite a bit for work and usually stay at the nicer hotels so I don't have to worry about reading reviews, to see if they're good or not in certain locations.  However I'm going to start reading reviews a lot more. To start off I just about passed this location because it's in the middle of an industrial park and didn't look like a good part of Houston. The staff was very friendly and courteous and took care of all my needs. However the king-size room I had, looked outdated and needed some maintenance repairs as you can see on the pictures attached.  For paying $150 a night and not having a free cocktail hour or free breakfast in the morning it left me a little disappointed. I will stay elsewhere when I visit Houston again.  Safe travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r381358236-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381358236</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>I had great service, and the staff were amazing and very helpful. Its also in a great location. I will definitely  be staying here again. While staying there I was able to do many things in the area without having to drive far, which was a convenience for me and my family.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had great service, and the staff were amazing and very helpful. Its also in a great location. I will definitely  be staying here again. While staying there I was able to do many things in the area without having to drive far, which was a convenience for me and my family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r379095827-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379095827</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>clean and modern, good value</t>
+  </si>
+  <si>
+    <t>This hotel is clean and comfortable, and offers an appealing price.  The rooms have good dark curtains, and the air conditioning wasn't terribly loud, so sleeping was good.  The hotel isn't really a walking distance to anything, but there are lots of dining choices within a very short driving distance.Note:  The price is low, but you don't get some of the extras that have become common at hotels.-coffee maker - yes-breakfast - extra charge-mini fridge - no-microwave - noFor the price, I didn't mind.  However, we only stayed one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This hotel is clean and comfortable, and offers an appealing price.  The rooms have good dark curtains, and the air conditioning wasn't terribly loud, so sleeping was good.  The hotel isn't really a walking distance to anything, but there are lots of dining choices within a very short driving distance.Note:  The price is low, but you don't get some of the extras that have become common at hotels.-coffee maker - yes-breakfast - extra charge-mini fridge - no-microwave - noFor the price, I didn't mind.  However, we only stayed one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r373493696-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373493696</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Law School Graduation</t>
+  </si>
+  <si>
+    <t>Great room, great service and very friendly.  On Saturday morning, the breakfast crew didn't show up but the hotel staff jumped into action and solved the problem.  The suite was very clean with a refrigerator, lots of room to spread out.  The property is very well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Great room, great service and very friendly.  On Saturday morning, the breakfast crew didn't show up but the hotel staff jumped into action and solved the problem.  The suite was very clean with a refrigerator, lots of room to spread out.  The property is very well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r371646926-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371646926</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Houston N Houston</t>
+  </si>
+  <si>
+    <t>I just wanted a quick get away and this spot was it. The only thing missing is a kitchenette. The room I had was very spacious and CLEAN. The bed and pillows were soft. The bathroom is just like all bathrooms. The gentle man that checked me in was very nice also the young lady who worked the bar was helpful and nice as well. I will come back and stay for a quick get away. HEB and restaurants are within walking distance. What I liked the most this location is hidden!!!(Maybe I should have kept this part quiet) LOL!MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>I just wanted a quick get away and this spot was it. The only thing missing is a kitchenette. The room I had was very spacious and CLEAN. The bed and pillows were soft. The bathroom is just like all bathrooms. The gentle man that checked me in was very nice also the young lady who worked the bar was helpful and nice as well. I will come back and stay for a quick get away. HEB and restaurants are within walking distance. What I liked the most this location is hidden!!!(Maybe I should have kept this part quiet) LOL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r371600277-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371600277</t>
+  </si>
+  <si>
+    <t>Nice rooms, decent location</t>
+  </si>
+  <si>
+    <t>Decent location - near a university, the zoo, and close to the highway to get downtown. The front desk staff was very welcoming and helpful. The layout is nice and the room had great high ceilings and a comfortable bed. There is a pool as well, and free wifi. Enjoyable place to stay when visiting Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Decent location - near a university, the zoo, and close to the highway to get downtown. The front desk staff was very welcoming and helpful. The layout is nice and the room had great high ceilings and a comfortable bed. There is a pool as well, and free wifi. Enjoyable place to stay when visiting Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r369495631-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369495631</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>My Goodness What A Great Place</t>
+  </si>
+  <si>
+    <t>From the minute we checked in with the pleasant desk staff, this place met our highest expectations. Talk about a CLEAN hotel stay-everything from the lobby to the room and bathroom.  Loved the soaps, loved the quick free internet, adored the shuttle within three mile radius that we used four times and the soundproof room.  We had coffee in the morning served by the affable Jay and his co worker-whose name I did not write down.  The location was perfect for our trip to the museum and some restaurants.  This staff is trained for customer service and housekeeping deserve some accolades too. The extra blankets are sealed in a bag on the closet shelf and the bed cover is obviously washed along with the sheets. When we go to Houston, we will definitely book this Courtyard.  Then TV reception was a bit iffy but we did not call anyone on it so no big deal. My husband reported the blinking clock and the toilet seat that wiggled and it was not attended to but they were minor inconveniences since we were out most of the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the minute we checked in with the pleasant desk staff, this place met our highest expectations. Talk about a CLEAN hotel stay-everything from the lobby to the room and bathroom.  Loved the soaps, loved the quick free internet, adored the shuttle within three mile radius that we used four times and the soundproof room.  We had coffee in the morning served by the affable Jay and his co worker-whose name I did not write down.  The location was perfect for our trip to the museum and some restaurants.  This staff is trained for customer service and housekeeping deserve some accolades too. The extra blankets are sealed in a bag on the closet shelf and the bed cover is obviously washed along with the sheets. When we go to Houston, we will definitely book this Courtyard.  Then TV reception was a bit iffy but we did not call anyone on it so no big deal. My husband reported the blinking clock and the toilet seat that wiggled and it was not attended to but they were minor inconveniences since we were out most of the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r366472935-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366472935</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Clean, neat and new.</t>
+  </si>
+  <si>
+    <t>Clean, new rooms with black speckled quartz countertops and spacious desk. I was on the first floor near the dining area so breakfast was easy to get to. I had to track down the desk clerk to check out but other than that, I was very pleased and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Clean, new rooms with black speckled quartz countertops and spacious desk. I was on the first floor near the dining area so breakfast was easy to get to. I had to track down the desk clerk to check out but other than that, I was very pleased and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r361866001-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361866001</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Terrible Experience!</t>
+  </si>
+  <si>
+    <t>Trip for annual exam at MDAnderson. Not a good hotel experience. Had to call front desk at 3 am because of noise on our floor. Do not use the van service to MDA. Driver was late leaving in the morning, then we had to wait an hour to be picked up in the afternoon (after calling the hotel 3 times and finally talking to the mgr) We have stayed at MANY Marriotts )hubby is a lifetime platinum member). Will never stay at this one again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Trip for annual exam at MDAnderson. Not a good hotel experience. Had to call front desk at 3 am because of noise on our floor. Do not use the van service to MDA. Driver was late leaving in the morning, then we had to wait an hour to be picked up in the afternoon (after calling the hotel 3 times and finally talking to the mgr) We have stayed at MANY Marriotts )hubby is a lifetime platinum member). Will never stay at this one again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r350875788-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350875788</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Very Comfortable-Good Location</t>
+  </si>
+  <si>
+    <t>We moved here after our fiasco at the next door Residence Inn.  It is managed by the same folks so you can walk over to the Residence for breakfast.  Nice rooms.  Generally quiet.  Expensive bar.   Very Nice staff &amp; good weekend pricing.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>We moved here after our fiasco at the next door Residence Inn.  It is managed by the same folks so you can walk over to the Residence for breakfast.  Nice rooms.  Generally quiet.  Expensive bar.   Very Nice staff &amp; good weekend pricing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r349083968-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349083968</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Work trip</t>
+  </si>
+  <si>
+    <t>I was booked into this hotel by my company for a two week work trip to Houston.  Front Desk staff were usually always friendly and helpful, and the same goes for those in the Bistro.The King guest room was average, if not a little on the small side.  It was quite dark as it faced right onto the side of the Residence Inn.  The website and advertising within the hotel claims that it has been recently renovated, however I'd say the room actually was in need of modernizing.The seal of the plug in the bathroom sink needed fixing and this was done promptly.  The AC unit was quite loud so I didn't use it, and it would have been good to have a mini fridge.  Otherwise, the bed was really comfortable and, generally, noise levels were not an issue.  Housekeeping was okay, but the carpet I felt was not always thoroughly vacuumedAll things said, I'm fairly sure I'll be back here again soon.  The room rate is good, it's close to Greenway Plaza, with plenty of amenities in the vicinity, and easy to access from the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded March 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2016</t>
+  </si>
+  <si>
+    <t>I was booked into this hotel by my company for a two week work trip to Houston.  Front Desk staff were usually always friendly and helpful, and the same goes for those in the Bistro.The King guest room was average, if not a little on the small side.  It was quite dark as it faced right onto the side of the Residence Inn.  The website and advertising within the hotel claims that it has been recently renovated, however I'd say the room actually was in need of modernizing.The seal of the plug in the bathroom sink needed fixing and this was done promptly.  The AC unit was quite loud so I didn't use it, and it would have been good to have a mini fridge.  Otherwise, the bed was really comfortable and, generally, noise levels were not an issue.  Housekeeping was okay, but the carpet I felt was not always thoroughly vacuumedAll things said, I'm fairly sure I'll be back here again soon.  The room rate is good, it's close to Greenway Plaza, with plenty of amenities in the vicinity, and easy to access from the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r348020435-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348020435</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Great Location and Helpful Staff</t>
+  </si>
+  <si>
+    <t>This hotel is convenient to great food and shopping. This is a safe  neighborhood and the pricing is affordable especially for the nice condition of the hotel. Breakfast is not included, but the pool area is nice to relax in as the cushioned chairs make you feel like home. If Wendal is on duty, you will be treated with the utmost respect and courtesy. All staff was helpful during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is convenient to great food and shopping. This is a safe  neighborhood and the pricing is affordable especially for the nice condition of the hotel. Breakfast is not included, but the pool area is nice to relax in as the cushioned chairs make you feel like home. If Wendal is on duty, you will be treated with the utmost respect and courtesy. All staff was helpful during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r343810493-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343810493</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>I stayed in Courtyard in Houston for 1 night business visit. The check in and check out process is very smooth and efficient, used the conference room which was ok too. The only one feedback is about the room size which is relatively small . There is also a large open space in front of the hotel which I like too. MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded February 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in Courtyard in Houston for 1 night business visit. The check in and check out process is very smooth and efficient, used the conference room which was ok too. The only one feedback is about the room size which is relatively small . There is also a large open space in front of the hotel which I like too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r343043342-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343043342</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Stayed two nights as part of a group attending a funeral so it obviously was a sad occasion.  Camille gave the group a great rate.  The hotel was quiet, comfortable and convenient.  The restaurant was surprisingly good - had an outstanding breakfast.  The best part, however, was the staff.  they were very friendly and attentive.  I highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2016</t>
+  </si>
+  <si>
+    <t>Stayed two nights as part of a group attending a funeral so it obviously was a sad occasion.  Camille gave the group a great rate.  The hotel was quiet, comfortable and convenient.  The restaurant was surprisingly good - had an outstanding breakfast.  The best part, however, was the staff.  they were very friendly and attentive.  I highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r339484874-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339484874</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We had a seminar there and they took great care of us. DD in the cafe bistro was one of the nicest and friendliest employees I have ever encountered. She took care of all of our needs and offered to go above and beyond to make sure we were taken care of. MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>We had a seminar there and they took great care of us. DD in the cafe bistro was one of the nicest and friendliest employees I have ever encountered. She took care of all of our needs and offered to go above and beyond to make sure we were taken care of. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r316218867-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316218867</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Old Matresses</t>
+  </si>
+  <si>
+    <t>I am awake a three in the morning because the mattress are very HARD and OLD. It doesn't matter how clean and courteous the hotel is if you can't get a good night's rest while traveling. Too bad because the hotel is nicely located and could be just fine for business travel with free wi if etc But if you can't sleep , well enough said.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r304193979-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304193979</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another solid stay while traveling </t>
+  </si>
+  <si>
+    <t>The staff was nice and the room was clean and quiet. The food was not that expensive and the area has allot off in terms of entertainment.The only thing that I ran across is the small gym on the property was a little dirty, it looked like it has not been cleaned in a while. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Sasha S, General Manager at Courtyard Houston-West University, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>The staff was nice and the room was clean and quiet. The food was not that expensive and the area has allot off in terms of entertainment.The only thing that I ran across is the small gym on the property was a little dirty, it looked like it has not been cleaned in a while. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r299029402-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299029402</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Visit niece on family vacation</t>
+  </si>
+  <si>
+    <t>Nice week long stay, staff was friendly.  The clerk, Deprese, in the Bistro was very pleasant and they had fresh cooked entrees on site. The desk clerks were very helpful with directions to outings.  There is a mid-size fitness room, which is good for use on vacation.  Air condition was extra cold for the 108 degree hat index.  I would recommend the  hotel for does who need the downtown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>WUNICYGM, General Manager at Courtyard Houston-West University, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Nice week long stay, staff was friendly.  The clerk, Deprese, in the Bistro was very pleasant and they had fresh cooked entrees on site. The desk clerks were very helpful with directions to outings.  There is a mid-size fitness room, which is good for use on vacation.  Air condition was extra cold for the 108 degree hat index.  I would recommend the  hotel for does who need the downtown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r283946431-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283946431</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Very Quiet Location</t>
+  </si>
+  <si>
+    <t>This Courtyard was nice, clean and just what you would expect from Marriott.  It was also in a very quiet, out-of-the-way location - but was still very close to a lot of attractions (Rice University, Galleria Mall, etc.).  Things were great at this hotel - fast WiFi, friendly staff, and very convenient location.  Loved it.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r282569233-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282569233</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, Very Fast Wifi</t>
+  </si>
+  <si>
+    <t>Our stay here was great. The room was quiet, AC worked very well and the Wi-fi speed was crazy fast (important to business travelers that work from the hotel room). Download speed was 36 Mbps and Upload speed was 39 Mbps.I had read in another review, that the internet speeds were faster here which sealed the deal for me to stay at the Courtyard.The hotel staff greeted us each time we entered and left.. Highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r279610512-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279610512</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Just a short stay...</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful. Our room requests were handled quickly and efficiently. We came to Houston especially to see the space centre and were not disappointed with either. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r268487920-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268487920</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Very disappointing on many fronts</t>
+  </si>
+  <si>
+    <t>First I always get a kick when people give what are formally known as motels five stars.  There are in fact give start hotels in the world and no Courtyard is ever going to be a four or five start hotel.  I have stayed in many Courtyards over the years and this one ranks pretty low.What's not to like?1.  Weird location and not really walking distance to key clients in the area. 2.  Smelly musty rooms.3.  No coffee available until 630am. Come one, you are cattering to travelers on all times zone.  To have no in room coffee available and have to wait until 630 am is unacceptable. 4. Rooms facing out to pool have people up late at night making a lot of noise.  Not conducive for a good sleep.5. No real bar and no bar within walking distance. 6. Staff is unresponsive (except guy at kiosk last night doing food service--he was good)7.  Old mattresses with uneven sleepWhat's to like?1.  Rooms reasonable sizeCannot really recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>William C, Front Office Manager at Courtyard Houston-West University, responded to this reviewResponded May 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2015</t>
+  </si>
+  <si>
+    <t>First I always get a kick when people give what are formally known as motels five stars.  There are in fact give start hotels in the world and no Courtyard is ever going to be a four or five start hotel.  I have stayed in many Courtyards over the years and this one ranks pretty low.What's not to like?1.  Weird location and not really walking distance to key clients in the area. 2.  Smelly musty rooms.3.  No coffee available until 630am. Come one, you are cattering to travelers on all times zone.  To have no in room coffee available and have to wait until 630 am is unacceptable. 4. Rooms facing out to pool have people up late at night making a lot of noise.  Not conducive for a good sleep.5. No real bar and no bar within walking distance. 6. Staff is unresponsive (except guy at kiosk last night doing food service--he was good)7.  Old mattresses with uneven sleepWhat's to like?1.  Rooms reasonable sizeCannot really recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r267022853-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267022853</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Very accommodating staff!</t>
+  </si>
+  <si>
+    <t>This is an average hotel in many respects.  However, when I was in a bind and needed a safety pin in a hurry, I didn't wait long for a knock on the door.  Very pleased with how promptly they responded.  The safety pin saved the day!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an average hotel in many respects.  However, when I was in a bind and needed a safety pin in a hurry, I didn't wait long for a knock on the door.  Very pleased with how promptly they responded.  The safety pin saved the day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r240100934-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240100934</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard multiple times before but am not sure if I'll return.  The room was clean and everything was up to Marriott standards except for 3 items:- The tv and phone in my room weren't working.  I didn't discover this until around 10 pm when I got in from dinner.  The guy at the front desk did offer to bring another one from a neighboring property but with wanting to go to bed, I told him not to bother.  Why wasn't this checked earlier or was a complaint from a prior guest not addressed?  In fairness, they did tell me that I was getting some Marriott points to make up and I did get a voice message from the hotel manager to follow-up, but again, this shouldn't have happened to begin with.- I also had difficulty accessing Delta on the lobby computer to print my boarding pass.  Not sure if it was the website or the hotel's internet connectivity.Everything else was fine but I'll think twice before staying here again.  I should mention that the rate was over $250 so this wasn't inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this Courtyard multiple times before but am not sure if I'll return.  The room was clean and everything was up to Marriott standards except for 3 items:- The tv and phone in my room weren't working.  I didn't discover this until around 10 pm when I got in from dinner.  The guy at the front desk did offer to bring another one from a neighboring property but with wanting to go to bed, I told him not to bother.  Why wasn't this checked earlier or was a complaint from a prior guest not addressed?  In fairness, they did tell me that I was getting some Marriott points to make up and I did get a voice message from the hotel manager to follow-up, but again, this shouldn't have happened to begin with.- I also had difficulty accessing Delta on the lobby computer to print my boarding pass.  Not sure if it was the website or the hotel's internet connectivity.Everything else was fine but I'll think twice before staying here again.  I should mention that the rate was over $250 so this wasn't inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r231105903-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231105903</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Weird licstion</t>
+  </si>
+  <si>
+    <t>Hotel remodeled sports new courtyard look . front desk friendly and helpfulZero view in any directionTypical Houston ambience! None!City zoning makes zero sense!Surrounded by metal fates area seems safe but signs everywhere reminding you of theftJarring hangover?Close to Rice Medical district downtownRestraint selection nearby  is goodStay away from Goode restaurants  Goode BBQ and seafood terrible!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r229266558-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229266558</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Awesome stay!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful staff! Larry was great! Room was very clean, pool was one of the cleanest I've ever been to at a hotel.  Used shuttle service it was great. I really can't say anything bad. Had a great stay!! Very helpful staff always friendly.  Rate was good. Not too pricey. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r225911134-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225911134</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were here for 3 nights &amp; will make it our home away from home while in Houston!  The price was outstanding, rooms clean, and staff helpful.  Free parking &amp; Wifi is always a bonus in Houston!  There are plenty of restaurants nearby &amp; it's also close to the Galleria.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r209260072-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209260072</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Great location, be prepared to pay for it!</t>
+  </si>
+  <si>
+    <t>The only gripe that I can come up with is price.  This is often the most expensive Courtyard that I stay at when I suck it up and spend in some cases mid $200's for a room.  This is a Courtyard, that means you pay for breakfast on top of an often VERY expensive room.  This last time it was just too much to justify and I stayed a few miles away for a sub $200/night experience at another Courtyard.  That is still a little too high, but at the time was the most "reasonable" Marriott property.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r207136205-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207136205</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Good location, average otherwise</t>
+  </si>
+  <si>
+    <t>You are really paying for location here.  This is close to the museums, Rice Village/University, the Galleria, and not far from downtown, but the hotel itself is really average, and overpriced for what it is.  When we first got there, no one was at the front desk, and no one arrived for a couple of minutes.  It wasn't clear that it was the front desk, either, which was not what I wanted to deal with after driving four hours to get there.  Our room was clean and spacious, but there were a number of small details that were off.  The iron was beat-up and janky, the bathroom looked well-used, and I thought that the toiletries in bottles might have been used before.  There was no notification that I could find about the check-out time, which resulted in me having to call the front desk at 1:00 in the morning.  I did think the bed was comfortable, but when doing the room check for bugs, there was weirdness under mattress, like someone had pushed bits of candy bars under it.  Breakfast is not included.  I wouldn't have minded most of it, but, compared to other hotels in other large cities, I felt like I paid too much for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>You are really paying for location here.  This is close to the museums, Rice Village/University, the Galleria, and not far from downtown, but the hotel itself is really average, and overpriced for what it is.  When we first got there, no one was at the front desk, and no one arrived for a couple of minutes.  It wasn't clear that it was the front desk, either, which was not what I wanted to deal with after driving four hours to get there.  Our room was clean and spacious, but there were a number of small details that were off.  The iron was beat-up and janky, the bathroom looked well-used, and I thought that the toiletries in bottles might have been used before.  There was no notification that I could find about the check-out time, which resulted in me having to call the front desk at 1:00 in the morning.  I did think the bed was comfortable, but when doing the room check for bugs, there was weirdness under mattress, like someone had pushed bits of candy bars under it.  Breakfast is not included.  I wouldn't have minded most of it, but, compared to other hotels in other large cities, I felt like I paid too much for the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r205239684-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205239684</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Comfortable and Inviting</t>
+  </si>
+  <si>
+    <t>I look for a hotel that is safe, clean, comfortable and friendly.  All of my expectations were met here.  The bed was extremely comfortable with great pillows, and the A/C was cold.  I seldom sleep well in hotels, but this was a great exception.  The hotel is easy to access and everything about it was inviting.  I am so glad I stayed here and will do so again given the opportunity.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r184999633-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184999633</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Close to restaurants</t>
+  </si>
+  <si>
+    <t>Good choices of restaurants in the area. Industrial area but the hotel itself is nice enough. Free Shuttle to anywhere in the area is very convenient. Rooms clean. Thanks for the experience. Close to freeway access.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r184716917-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184716917</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>This Courtyard is like all others with a Bistro, Business Center and standard rooms. The rooms are spacious, but there was a lot of road noise making it difficult to sleep. The location is very convenient to the Rice University Campus and downtown. The interesting part is that there is a Courtyard and Residence Inn on the same property. So if you are there for a short or long stay Marriott has you covered here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r182575545-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182575545</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Check in was smooth and easy and all our requests met. Lovely big rooms and with really comfy beds! Nice and quiet and we slept very well. Good fitness room and pool and guest laundry was very helpful. Good area for exploring Houston. Lots of places to eat around the hotel. Would recommend here. The only thing I would say is I feel they should offer comp coffee.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r174532421-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174532421</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Average.</t>
+  </si>
+  <si>
+    <t>This Courtyard is average for a Courtyard. Nothing special. I'm disappointed that most Courtyards (but not all) including this one stopped offering complimentary coffee. They now have to make a buck off Starbucks. The least they could do is start selling coffee at 6 am instead of 6:30 am. A lot of people are off to the airport or work before 6:30 am. Also, why doesn't Courtyards turn their bed to face the credenza where the TV is located. The way the bed is situated you have to lay in bed and look off to the side to watch TV.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r174337160-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174337160</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Close to Minute Maid</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel so we could attend a couple of Rangers vs Astros games.  I selected it because the price was the best in the area and closer to downtown.  I was pleasantly surprised how close it was to the ballpark, only about 5 miles at a straight shot.  The rooms were clean and the staff friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r162123147-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162123147</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Not bad, but can improve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room nice and large. Pool and hot tub fine. But they need improvement in two areas; first, dinner menu at the Bistro needs something besides heavily tilted salad or sandwich offerings. Add a pasta dish or hot open-faced sandwich.Second, they need to keep their sidebars clean.  Guests left trash, glasses, etc. on the sidebars by the elevators, common areas, front door.  Saw this when I left in the morning and returned in the evening.  Staff needs to make an effort to clear these off quicker.  It looks bad, gives the hotel a less clean image. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r147350683-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147350683</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed our nicely decorated and comfortable room which we booked at the very good senior rate Marriott often offers.  I was especially pleased that the manager remembered my name and greeted us in a friendly manner.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r144358980-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144358980</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Typical Courtyard-great for casual quiet weekend visits</t>
+  </si>
+  <si>
+    <t>Recently stayed here to visit friends in the area and everything was great. The staff is very friendly and well trained in Hospitality.  Rooms were average - typical upgraded courtyard room-so no complaints.  Parking is easy, and beds are comfy. AC worked great. The restroom was slightly dirty due to someone checking into the room then changing rooms and they must have used the bathroom-but hotel fixed this very soon.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r142207248-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142207248</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>We had a great time at this hotel.  We could check in early.  The staff was very happy and helpful.  We felt important to them.  We had a problem with our TV and they were quick to change us to a new room.  The bed was comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r141045412-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141045412</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Consistently, A Great Hotel!</t>
+  </si>
+  <si>
+    <t>Our son attends Rice University, and we have visited this hotel at least 5 times over the last 4 years. Each time, we consistently have had wonderful service. The staff enthusiastically greets you as you walk in the door. Any issues we have had are promptly attended too. The beds and linens are luxurious, complimented by amazing blackout drapes that allow "slugs" to sleep in until 10:00 (and I thought it was only 8:30!). Lots of great restaurants are in the area. In fact, Goode Co. Seafood, highly rated on Trip Advisor, is just down the street. A previous reviewer mentioned a sign in the elevators about valuables being left in cars. We saw the sign too. This sign was not meant to imply that this hotel is not safe. It is obvious that it is a large city campaign overseen by Houston Police Department. If you are in Houston, you should be conscious where ever you go! When we go back to Houston in the spring, we plan to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Our son attends Rice University, and we have visited this hotel at least 5 times over the last 4 years. Each time, we consistently have had wonderful service. The staff enthusiastically greets you as you walk in the door. Any issues we have had are promptly attended too. The beds and linens are luxurious, complimented by amazing blackout drapes that allow "slugs" to sleep in until 10:00 (and I thought it was only 8:30!). Lots of great restaurants are in the area. In fact, Goode Co. Seafood, highly rated on Trip Advisor, is just down the street. A previous reviewer mentioned a sign in the elevators about valuables being left in cars. We saw the sign too. This sign was not meant to imply that this hotel is not safe. It is obvious that it is a large city campaign overseen by Houston Police Department. If you are in Houston, you should be conscious where ever you go! When we go back to Houston in the spring, we plan to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r137882209-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137882209</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Good rooms, but security concerns</t>
+  </si>
+  <si>
+    <t>You might need your GPS to find this hotel.  It is almost hidden on a stretch of Westpark I never knew existed, running parallel to US59 inside IH610  The location was good for our purpose, which was to go see a couple of Astros games.  It is convenient to jump on US59 to travel the few miles to the ballpark, or, as we did, drive over to the Museum District, park, and take the MetroRail downtown.We were greeted courteously by the front desk staff in the attractive lobby, and were pleased to find our room to be completely updated.  Everything was very clean, with new furniture and crisp, white bedding.  Beds were very comfortable. Big flatscreen TV with plenty of channels with great reception.Parking was crowded the first night we were there.  There was construction/remodeling going on at the adjacent Residence Inn, and some spots were occupied by construction equipment and materials.  Although the property appears to be completely fenced, there were warning signs in the elevator about auto break-ins and thefts, enough to give me pause about returning to that location.  I saw no indication of a security guard, which could have alleviated much of that risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>You might need your GPS to find this hotel.  It is almost hidden on a stretch of Westpark I never knew existed, running parallel to US59 inside IH610  The location was good for our purpose, which was to go see a couple of Astros games.  It is convenient to jump on US59 to travel the few miles to the ballpark, or, as we did, drive over to the Museum District, park, and take the MetroRail downtown.We were greeted courteously by the front desk staff in the attractive lobby, and were pleased to find our room to be completely updated.  Everything was very clean, with new furniture and crisp, white bedding.  Beds were very comfortable. Big flatscreen TV with plenty of channels with great reception.Parking was crowded the first night we were there.  There was construction/remodeling going on at the adjacent Residence Inn, and some spots were occupied by construction equipment and materials.  Although the property appears to be completely fenced, there were warning signs in the elevator about auto break-ins and thefts, enough to give me pause about returning to that location.  I saw no indication of a security guard, which could have alleviated much of that risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r135740014-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135740014</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Courtyard - Non Smoking Hotel</t>
+  </si>
+  <si>
+    <t>Won this hotel bidding on Priceline. Regular rate was $99. Got it for $46 plus tax. Fast, friendly check in. Nice lobby with bistro/bar &amp; pool area. Rooms were bright &amp; very clean &amp; quite. Comfortable beds. Easy access to Freeway &amp; lots of places to eat in the area. Smoking allowed outside.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r130081692-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130081692</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>The Staff are Superb!</t>
+  </si>
+  <si>
+    <t>I normally stay at the JW Marriott when in town, but due to the OTC conference, rates in Houston were exhorbitant.  Even the Courtyard was over $300/night.  Once I got past the shock, I chose this hotel as it was the best value available.  I am so glad I did.  I may seriously consider using this hotel instead of the more upscale Marriotts in the future.
+Summary: The staff are absolutely amazing and make this hotel what it is.  They made my morning, afternoon, and evening.  Every person I encountered was extremely friendly -- not annoying friendly, but genuinely friendly.  They offered a sincere "hope you have a great day" nearly every time I saw them in addition to other things.  
+But the hotel's great features don't stop there.  The lobby is extremely modern and comfortable - better than any Courtyard I have been in.  The restaurant area is more of a coffee bar style (walk up to order, then have a seat), but has cook to order food also.  I only ate breakfast there, but it had a nice selection of offerings.
+-- More on the staff.  They do serve Starbuck's coffee there, but they do not have the standard Starbuck's machine.  One patron was adamant about how he wanted his coffee (and was honestly quite rude).  The person helping him explained that the machine can not make "extra hot", but she was detemined to find a solution.  She...I normally stay at the JW Marriott when in town, but due to the OTC conference, rates in Houston were exhorbitant.  Even the Courtyard was over $300/night.  Once I got past the shock, I chose this hotel as it was the best value available.  I am so glad I did.  I may seriously consider using this hotel instead of the more upscale Marriotts in the future.Summary: The staff are absolutely amazing and make this hotel what it is.  They made my morning, afternoon, and evening.  Every person I encountered was extremely friendly -- not annoying friendly, but genuinely friendly.  They offered a sincere "hope you have a great day" nearly every time I saw them in addition to other things.  But the hotel's great features don't stop there.  The lobby is extremely modern and comfortable - better than any Courtyard I have been in.  The restaurant area is more of a coffee bar style (walk up to order, then have a seat), but has cook to order food also.  I only ate breakfast there, but it had a nice selection of offerings.-- More on the staff.  They do serve Starbuck's coffee there, but they do not have the standard Starbuck's machine.  One patron was adamant about how he wanted his coffee (and was honestly quite rude).  The person helping him explained that the machine can not make "extra hot", but she was detemined to find a solution.  She really wanted to make him happy.  While I don't think this customer could ever be made happy, but she did everything in her power to help him (and remained very professional and friendly despite him yelling at her -- simply amazing).The room was very comfortable.  WiFi was good and free.  The noise level was not noticeable at all.  Slept like a baby.While others have mentioned the location is not attractive (nothing great to look at), it really is convenient to a lot of things.  And for that customer that wants speaks only Starbuck's -- there is one within walking distance.  Please go there next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I normally stay at the JW Marriott when in town, but due to the OTC conference, rates in Houston were exhorbitant.  Even the Courtyard was over $300/night.  Once I got past the shock, I chose this hotel as it was the best value available.  I am so glad I did.  I may seriously consider using this hotel instead of the more upscale Marriotts in the future.
+Summary: The staff are absolutely amazing and make this hotel what it is.  They made my morning, afternoon, and evening.  Every person I encountered was extremely friendly -- not annoying friendly, but genuinely friendly.  They offered a sincere "hope you have a great day" nearly every time I saw them in addition to other things.  
+But the hotel's great features don't stop there.  The lobby is extremely modern and comfortable - better than any Courtyard I have been in.  The restaurant area is more of a coffee bar style (walk up to order, then have a seat), but has cook to order food also.  I only ate breakfast there, but it had a nice selection of offerings.
+-- More on the staff.  They do serve Starbuck's coffee there, but they do not have the standard Starbuck's machine.  One patron was adamant about how he wanted his coffee (and was honestly quite rude).  The person helping him explained that the machine can not make "extra hot", but she was detemined to find a solution.  She...I normally stay at the JW Marriott when in town, but due to the OTC conference, rates in Houston were exhorbitant.  Even the Courtyard was over $300/night.  Once I got past the shock, I chose this hotel as it was the best value available.  I am so glad I did.  I may seriously consider using this hotel instead of the more upscale Marriotts in the future.Summary: The staff are absolutely amazing and make this hotel what it is.  They made my morning, afternoon, and evening.  Every person I encountered was extremely friendly -- not annoying friendly, but genuinely friendly.  They offered a sincere "hope you have a great day" nearly every time I saw them in addition to other things.  But the hotel's great features don't stop there.  The lobby is extremely modern and comfortable - better than any Courtyard I have been in.  The restaurant area is more of a coffee bar style (walk up to order, then have a seat), but has cook to order food also.  I only ate breakfast there, but it had a nice selection of offerings.-- More on the staff.  They do serve Starbuck's coffee there, but they do not have the standard Starbuck's machine.  One patron was adamant about how he wanted his coffee (and was honestly quite rude).  The person helping him explained that the machine can not make "extra hot", but she was detemined to find a solution.  She really wanted to make him happy.  While I don't think this customer could ever be made happy, but she did everything in her power to help him (and remained very professional and friendly despite him yelling at her -- simply amazing).The room was very comfortable.  WiFi was good and free.  The noise level was not noticeable at all.  Slept like a baby.While others have mentioned the location is not attractive (nothing great to look at), it really is convenient to a lot of things.  And for that customer that wants speaks only Starbuck's -- there is one within walking distance.  Please go there next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r129702054-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129702054</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>If you can afford it, nice place to stay</t>
+  </si>
+  <si>
+    <t>We recently stayed here as a mother/daughter pair for a volleyball tournament.   The location of the Hotel was somewhat a surprise but then again this is Houston with very little zoning laws.  Hotel is close to Rice University &amp; its super easy to hop on 59 to get downtown.   The actual 1/2 mile around the hotel is questionable but after that there are several quaint areas &amp; plenty eating areas as you head down the Kirby cross street.  In fact follow Kirby down to Main street &amp; you can find just about anything you need within that 2 mile stretch.The hotel staff were very professional &amp; went above &amp; beyond in all situations.   Room was large, clean with comfortable beds, lots of pillows , good tv &amp; large desk!     Front desk folks were personable &amp; very friendly &amp; helpful.   The lady running the eating area downstairs made me the most awesome strawberry banana smoothie at 830 at night.    Very friendly folks!    With a teenage girl, having a separate sink/mirror from the actual potty/shower was a huge bonus.   The beds were wonderful &amp; very comfortable.    Nice mirrored closet area was also helpful with a teenage girl in tow.   No problems with check in &amp; checkout.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed here as a mother/daughter pair for a volleyball tournament.   The location of the Hotel was somewhat a surprise but then again this is Houston with very little zoning laws.  Hotel is close to Rice University &amp; its super easy to hop on 59 to get downtown.   The actual 1/2 mile around the hotel is questionable but after that there are several quaint areas &amp; plenty eating areas as you head down the Kirby cross street.  In fact follow Kirby down to Main street &amp; you can find just about anything you need within that 2 mile stretch.The hotel staff were very professional &amp; went above &amp; beyond in all situations.   Room was large, clean with comfortable beds, lots of pillows , good tv &amp; large desk!     Front desk folks were personable &amp; very friendly &amp; helpful.   The lady running the eating area downstairs made me the most awesome strawberry banana smoothie at 830 at night.    Very friendly folks!    With a teenage girl, having a separate sink/mirror from the actual potty/shower was a huge bonus.   The beds were wonderful &amp; very comfortable.    Nice mirrored closet area was also helpful with a teenage girl in tow.   No problems with check in &amp; checkout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r128996957-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128996957</t>
+  </si>
+  <si>
+    <t>04/28/2012</t>
+  </si>
+  <si>
+    <t>Excllent property, location and service.</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for two nights on a business trip.  I had stayed here previously when my son attended college in Houston.
+This Courtyard was given the new makeover that all Courtyards are getting now.  The facility looks so new and modern.  The lobby area is pristine, with a large seating area for just hanging out as well as a large separate seating area for the new restaurant, which is open for breakfast, lunch and dinner.  I did not eat here, but I noticed the prices were reasonable and at other Courtyards at which I've eaten, I have liked the food. 
+This place is conveniently located right off of Route 59.  It is an easy drive from either Bush Intercontinental or Hobby Airport, although Bush is a little further away.  
+Starbucks is a short walk from the hotel and Goode Company Barbecue, one of the best bbq places in the country!, is a five minute car ride away.  There are also numerous other restaurants nearby.
+This Courtyard is also very close to Rice University and if you are planning on ever visiting Rice as a potential school for you or your children, I highly recommend staying here.
+The rooms are clean and neat.  The bed was very comfortable.  My only disappointment with the room is that there are no HD channels available even though the rooms have large screen HD channels.
+I stayed in Room 117, on...I recently stayed at this hotel for two nights on a business trip.  I had stayed here previously when my son attended college in Houston.This Courtyard was given the new makeover that all Courtyards are getting now.  The facility looks so new and modern.  The lobby area is pristine, with a large seating area for just hanging out as well as a large separate seating area for the new restaurant, which is open for breakfast, lunch and dinner.  I did not eat here, but I noticed the prices were reasonable and at other Courtyards at which I've eaten, I have liked the food. This place is conveniently located right off of Route 59.  It is an easy drive from either Bush Intercontinental or Hobby Airport, although Bush is a little further away.  Starbucks is a short walk from the hotel and Goode Company Barbecue, one of the best bbq places in the country!, is a five minute car ride away.  There are also numerous other restaurants nearby.This Courtyard is also very close to Rice University and if you are planning on ever visiting Rice as a potential school for you or your children, I highly recommend staying here.The rooms are clean and neat.  The bed was very comfortable.  My only disappointment with the room is that there are no HD channels available even though the rooms have large screen HD channels.I stayed in Room 117, on the first floor, using my Marriott Points.  So this was a free stay for me.  And maybe that's why they gave me this room.  I would avoid this room at all costs.  It is directly behind the restaurant, and right next to an exit door that the employees use.  So the noise from the restaurant starts at abut 6;00 AM and doesn't stop until about 11:00 PM.  Granted I was out of the room most of the day, but the noise was quite bothersome from 6:00 AM until I left and again from the time I got back to my hotel and the restaurant closed.So my advice:  Stay here, but avoid Room 117!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for two nights on a business trip.  I had stayed here previously when my son attended college in Houston.
+This Courtyard was given the new makeover that all Courtyards are getting now.  The facility looks so new and modern.  The lobby area is pristine, with a large seating area for just hanging out as well as a large separate seating area for the new restaurant, which is open for breakfast, lunch and dinner.  I did not eat here, but I noticed the prices were reasonable and at other Courtyards at which I've eaten, I have liked the food. 
+This place is conveniently located right off of Route 59.  It is an easy drive from either Bush Intercontinental or Hobby Airport, although Bush is a little further away.  
+Starbucks is a short walk from the hotel and Goode Company Barbecue, one of the best bbq places in the country!, is a five minute car ride away.  There are also numerous other restaurants nearby.
+This Courtyard is also very close to Rice University and if you are planning on ever visiting Rice as a potential school for you or your children, I highly recommend staying here.
+The rooms are clean and neat.  The bed was very comfortable.  My only disappointment with the room is that there are no HD channels available even though the rooms have large screen HD channels.
+I stayed in Room 117, on...I recently stayed at this hotel for two nights on a business trip.  I had stayed here previously when my son attended college in Houston.This Courtyard was given the new makeover that all Courtyards are getting now.  The facility looks so new and modern.  The lobby area is pristine, with a large seating area for just hanging out as well as a large separate seating area for the new restaurant, which is open for breakfast, lunch and dinner.  I did not eat here, but I noticed the prices were reasonable and at other Courtyards at which I've eaten, I have liked the food. This place is conveniently located right off of Route 59.  It is an easy drive from either Bush Intercontinental or Hobby Airport, although Bush is a little further away.  Starbucks is a short walk from the hotel and Goode Company Barbecue, one of the best bbq places in the country!, is a five minute car ride away.  There are also numerous other restaurants nearby.This Courtyard is also very close to Rice University and if you are planning on ever visiting Rice as a potential school for you or your children, I highly recommend staying here.The rooms are clean and neat.  The bed was very comfortable.  My only disappointment with the room is that there are no HD channels available even though the rooms have large screen HD channels.I stayed in Room 117, on the first floor, using my Marriott Points.  So this was a free stay for me.  And maybe that's why they gave me this room.  I would avoid this room at all costs.  It is directly behind the restaurant, and right next to an exit door that the employees use.  So the noise from the restaurant starts at abut 6;00 AM and doesn't stop until about 11:00 PM.  Granted I was out of the room most of the day, but the noise was quite bothersome from 6:00 AM until I left and again from the time I got back to my hotel and the restaurant closed.So my advice:  Stay here, but avoid Room 117!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r124877932-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124877932</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Great location - excellent staff</t>
+  </si>
+  <si>
+    <t>Stayed here for only 1 night in February, but will definately be staying here again in the future.  I have stayed all over the greater houston area over the last couple years and I have finally found my home. Location, Location, Location....can jump right onto 59 North, tons of restaurants within a very short drive...Goode Seafood is just down the street.  The room was in very good shape..the workout room needs improvement, only had 2 treadmills and 1 elyptical..had a small selection of dumbells...wasnt there long enough to know if there are any running trails close by....but I suspect not.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r122182567-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122182567</t>
+  </si>
+  <si>
+    <t>12/28/2011</t>
+  </si>
+  <si>
+    <t>Very nice experience!</t>
+  </si>
+  <si>
+    <t>Very nice hotel.  I've stayed in many Courtyard's but this one is definitely a step above.  Rooms and hotel are completely updated with modern colors and decor.  Beds are very comfortable.  Convenient to freeway, Rice Village and medical center.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r120358627-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120358627</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We had a very pleasant stay at this courtyard.  Room was clean and the associates were friendly and helpful.  I asked which cab company Ashley would recommend to get to the Toyota Center that evening and she set it all up for us. The building looked recently renovated inside and out.  Very nice.  Only draw back was that one of the two elevators was out of order.  Kind of an inconvenience when carrying bags to second floor.  In a good neighborhood and close to downtown, Osteen Ministries, and other points of interest.  We will stay here again.  Thanks.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r107257692-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>107257692</t>
+  </si>
+  <si>
+    <t>05/07/2011</t>
+  </si>
+  <si>
+    <t>Nice little hotel for a business trip</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip April 27-April 30.  Its a nice little hotel--nothing spectacular, but the rooms were clean and the pool area was a lovely little place to sit and read.  No breakfast in the morning, but there is a little place to buy snacks and food (not a restaurant, more like a counter).  The gym was teeny tiny with only two treadmills and a bike.I didn't notice any bed bugs (not yet at least!!!).  Seemed clean and nice.  Friendly staff.The location is weird.  Its a very industrial area with high power lines.  I thought I was in the wrong place when I first turned down the road.  Although most of Houston is industrial like this.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>HWUMARRIOTTS, General Manager at Courtyard Houston-West University, responded to this reviewResponded August 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip April 27-April 30.  Its a nice little hotel--nothing spectacular, but the rooms were clean and the pool area was a lovely little place to sit and read.  No breakfast in the morning, but there is a little place to buy snacks and food (not a restaurant, more like a counter).  The gym was teeny tiny with only two treadmills and a bike.I didn't notice any bed bugs (not yet at least!!!).  Seemed clean and nice.  Friendly staff.The location is weird.  Its a very industrial area with high power lines.  I thought I was in the wrong place when I first turned down the road.  Although most of Houston is industrial like this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r106031132-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>106031132</t>
+  </si>
+  <si>
+    <t>04/28/2011</t>
+  </si>
+  <si>
+    <t>One of the worst hotels in this area</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of Houston hotels, and this place is more expensive than several nicer Galleria area hotels, and does not even offer a free breakfast.  The service in the overpriced "cafe" was awful and the food mediocre.  Room was old and worn with carpet stains, mismatched furniture and smelled musty.  I know Houston is humid but it just smelled bad my whole stay....almost like their carpets were mildewy.  Beds, linens and pillows were really old and the bed was one of the most uncomfortable I have ever slept on in a hotel.  This was very disappointing for a courtyard....by far the worst I have ever stayed in.  I have stayed in several Fairfields that are nicer.  I will not stay here again unless my company insists on it!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of Houston hotels, and this place is more expensive than several nicer Galleria area hotels, and does not even offer a free breakfast.  The service in the overpriced "cafe" was awful and the food mediocre.  Room was old and worn with carpet stains, mismatched furniture and smelled musty.  I know Houston is humid but it just smelled bad my whole stay....almost like their carpets were mildewy.  Beds, linens and pillows were really old and the bed was one of the most uncomfortable I have ever slept on in a hotel.  This was very disappointing for a courtyard....by far the worst I have ever stayed in.  I have stayed in several Fairfields that are nicer.  I will not stay here again unless my company insists on it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r90918647-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>90918647</t>
+  </si>
+  <si>
+    <t>12/28/2010</t>
+  </si>
+  <si>
+    <t>bedbugs</t>
+  </si>
+  <si>
+    <t>convenient business location and friendly staff but room had bedbugs!  I was reading in bed, caught movement out of the corner of my eye, flung open the sheets and at least 10 grown bed bugs were crawling around. staff was immediate about changing rooms but I am still suffering the aftermath weeks later.  there were so many they should have been detected by cleaning staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>HWUMARRIOTTS, General Manager at Courtyard Houston-West University, responded to this reviewResponded January 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2011</t>
+  </si>
+  <si>
+    <t>convenient business location and friendly staff but room had bedbugs!  I was reading in bed, caught movement out of the corner of my eye, flung open the sheets and at least 10 grown bed bugs were crawling around. staff was immediate about changing rooms but I am still suffering the aftermath weeks later.  there were so many they should have been detected by cleaning staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r60787576-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60787576</t>
+  </si>
+  <si>
+    <t>04/08/2010</t>
+  </si>
+  <si>
+    <t>Very good hotel overall</t>
+  </si>
+  <si>
+    <t>This was my first stay at this Courtyard, and I found it to be much better than other Courtyards I've stayed at around the country.  My room seemed brand new and was in perfect condition.  The staff were as friendly and helpful as any I've ever encountered (in the restaurant and front desk areas, the staff went out of their way to help).   My only complaints would be that the bed was way too soft, and the TV picture quality was not what I would expect for cable.  The internet connection worked fine, although it wasn't wireless.An extra bonus for me was the view of the tall buildings in Greenway Plaza.  Since I love architecture, I spent a lot of time looking out the window.Parking was very ample, and the neighborhood seemed safe, so I didn't worry about my car.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>This was my first stay at this Courtyard, and I found it to be much better than other Courtyards I've stayed at around the country.  My room seemed brand new and was in perfect condition.  The staff were as friendly and helpful as any I've ever encountered (in the restaurant and front desk areas, the staff went out of their way to help).   My only complaints would be that the bed was way too soft, and the TV picture quality was not what I would expect for cable.  The internet connection worked fine, although it wasn't wireless.An extra bonus for me was the view of the tall buildings in Greenway Plaza.  Since I love architecture, I spent a lot of time looking out the window.Parking was very ample, and the neighborhood seemed safe, so I didn't worry about my car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r58125530-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>58125530</t>
+  </si>
+  <si>
+    <t>03/09/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff, but poor follow-thru on actual delivery</t>
+  </si>
+  <si>
+    <t>I picked the Courtyard - West University based on location, price and advertised free wi-fi internet.  When I arrived at the hotel after 4pm, they did not have any rooms ready and I had to wait for them to clean a room before I could check in.  I could understand if I was checking in early, but by that time of the day they shouldn't have a problem providing me with a room.  I will say that the staff tried to be accomodating, but really all I wanted was to check-in to the room I had reserved.
+The hotel website claims they have free wi-fi in the lobby and the rooms.  I was located on the 3rd floor, and could never get any wi-fi signal for the Courtyard.  I also tried sitting poolside (just outside the lobby) and still couldn't get a signal.  If a hotel advertises a wi-fi internet, then they should make sure it is actually available.
+The third strike against the Courtyard was the cleanliness of the bathroom.  When I went to take a shower the next morning, I found the left over bar of soap from the last visitor (and no new soap) in the shower.  I also found long hair strands on the bathroom floor.  Perhaps in their effort to make a room available to me, they rushed the cleaning job, but still that is pretty disgusting.
+The room itself was acceptable, there was adequate...I picked the Courtyard - West University based on location, price and advertised free wi-fi internet.  When I arrived at the hotel after 4pm, they did not have any rooms ready and I had to wait for them to clean a room before I could check in.  I could understand if I was checking in early, but by that time of the day they shouldn't have a problem providing me with a room.  I will say that the staff tried to be accomodating, but really all I wanted was to check-in to the room I had reserved.The hotel website claims they have free wi-fi in the lobby and the rooms.  I was located on the 3rd floor, and could never get any wi-fi signal for the Courtyard.  I also tried sitting poolside (just outside the lobby) and still couldn't get a signal.  If a hotel advertises a wi-fi internet, then they should make sure it is actually available.The third strike against the Courtyard was the cleanliness of the bathroom.  When I went to take a shower the next morning, I found the left over bar of soap from the last visitor (and no new soap) in the shower.  I also found long hair strands on the bathroom floor.  Perhaps in their effort to make a room available to me, they rushed the cleaning job, but still that is pretty disgusting.The room itself was acceptable, there was adequate free parking and the staff I encountered were friendly, but they can't seem to deliver at a level I would expect from a quality hotel.  I would not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I picked the Courtyard - West University based on location, price and advertised free wi-fi internet.  When I arrived at the hotel after 4pm, they did not have any rooms ready and I had to wait for them to clean a room before I could check in.  I could understand if I was checking in early, but by that time of the day they shouldn't have a problem providing me with a room.  I will say that the staff tried to be accomodating, but really all I wanted was to check-in to the room I had reserved.
+The hotel website claims they have free wi-fi in the lobby and the rooms.  I was located on the 3rd floor, and could never get any wi-fi signal for the Courtyard.  I also tried sitting poolside (just outside the lobby) and still couldn't get a signal.  If a hotel advertises a wi-fi internet, then they should make sure it is actually available.
+The third strike against the Courtyard was the cleanliness of the bathroom.  When I went to take a shower the next morning, I found the left over bar of soap from the last visitor (and no new soap) in the shower.  I also found long hair strands on the bathroom floor.  Perhaps in their effort to make a room available to me, they rushed the cleaning job, but still that is pretty disgusting.
+The room itself was acceptable, there was adequate...I picked the Courtyard - West University based on location, price and advertised free wi-fi internet.  When I arrived at the hotel after 4pm, they did not have any rooms ready and I had to wait for them to clean a room before I could check in.  I could understand if I was checking in early, but by that time of the day they shouldn't have a problem providing me with a room.  I will say that the staff tried to be accomodating, but really all I wanted was to check-in to the room I had reserved.The hotel website claims they have free wi-fi in the lobby and the rooms.  I was located on the 3rd floor, and could never get any wi-fi signal for the Courtyard.  I also tried sitting poolside (just outside the lobby) and still couldn't get a signal.  If a hotel advertises a wi-fi internet, then they should make sure it is actually available.The third strike against the Courtyard was the cleanliness of the bathroom.  When I went to take a shower the next morning, I found the left over bar of soap from the last visitor (and no new soap) in the shower.  I also found long hair strands on the bathroom floor.  Perhaps in their effort to make a room available to me, they rushed the cleaning job, but still that is pretty disgusting.The room itself was acceptable, there was adequate free parking and the staff I encountered were friendly, but they can't seem to deliver at a level I would expect from a quality hotel.  I would not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r56757438-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56757438</t>
+  </si>
+  <si>
+    <t>02/22/2010</t>
+  </si>
+  <si>
+    <t>Excellent  front desk service</t>
+  </si>
+  <si>
+    <t>I  stayed here for 4 days fron Thursday to Sunday. I was really surprised for the excellent service.  If I had to go back I would choise this hotel again. Beds are confortable and breakfast is good but  you have to be carefull till what time it is open. They offer Complementary shuttle and it is really great.  On  Morning Sunday they took me to Plaza Mall and at 3pm they pick me up back to the hotel.  I spend a great time looking around and drinking a hot cocoa.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r26279602-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26279602</t>
+  </si>
+  <si>
+    <t>03/16/2009</t>
+  </si>
+  <si>
+    <t>Great Location for Reliant Park</t>
+  </si>
+  <si>
+    <t>The Courtyard West University is a great location for visiting the Reliant Park! We stayed because of the Rodeo Cookoff, and we had no problems with the hotel! The rooms and staff were excellent! Parking was great....it was free which was the best! The hotel aslo provided us with free shuttle...which was great as well! You will not be dissapointed with your stay!</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r16801812-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>16801812</t>
+  </si>
+  <si>
+    <t>06/09/2008</t>
+  </si>
+  <si>
+    <t>Some Nefarious Staff *** UPDATE from 7/25/06 Posting</t>
+  </si>
+  <si>
+    <t>I thought I had posted this update, but Tripadvisor informed me that I had not.  I will use an outline of the e-mail that I copied to myself back on 5/3/07.   We were a big fan of this hotel, and would stay here about every three months until April 2007.  We don't stay here anymore.During a May 2007 stay, we moved rooms do to the Marriott custodian slamming doors and accidently left behind a watch and wedding ring. The front desk clerk, Nsidi, gave us a big run around when we wanted to retrieve it from the first room.  The ring and watch were "missing" from 4/27/07 until 5/10/07.  I had to jump through hoops, but after getting a hold of the General Manager Esmeralda Clavo she sent the ring &amp; watch back.The hotel is worn down and starting to smell moldy.  However the location is fantastic.  I have switched to staying at the Residence Inn right behind the Courtyard.  Additional warning - I noticed the police taking a report during Nov. 17, 2007 over a smashed back car window at the Courtyard.  The Courtyard and the Residence Inn are on the same site with the Courtyard in front.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>I thought I had posted this update, but Tripadvisor informed me that I had not.  I will use an outline of the e-mail that I copied to myself back on 5/3/07.   We were a big fan of this hotel, and would stay here about every three months until April 2007.  We don't stay here anymore.During a May 2007 stay, we moved rooms do to the Marriott custodian slamming doors and accidently left behind a watch and wedding ring. The front desk clerk, Nsidi, gave us a big run around when we wanted to retrieve it from the first room.  The ring and watch were "missing" from 4/27/07 until 5/10/07.  I had to jump through hoops, but after getting a hold of the General Manager Esmeralda Clavo she sent the ring &amp; watch back.The hotel is worn down and starting to smell moldy.  However the location is fantastic.  I have switched to staying at the Residence Inn right behind the Courtyard.  Additional warning - I noticed the police taking a report during Nov. 17, 2007 over a smashed back car window at the Courtyard.  The Courtyard and the Residence Inn are on the same site with the Courtyard in front.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r15183349-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15183349</t>
+  </si>
+  <si>
+    <t>04/21/2008</t>
+  </si>
+  <si>
+    <t>Great Stay in Houston</t>
+  </si>
+  <si>
+    <t>We stayed at this Courtyard for it's proximity to the Rice campus and Rice Village area.The rooms were clean and quiet. This hotel is in the same lot as the Residence Inn but there was plenty of close parking, even though we arrived very late in the evening.There is a pantry area with cold drinks and snacks for sale. Complimentary fruit was also available. Visit any of the Goode Company restaurants that are located within walking distance.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r10965265-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10965265</t>
+  </si>
+  <si>
+    <t>11/21/2007</t>
+  </si>
+  <si>
+    <t>Good stay at Courtyard West University/Houston</t>
+  </si>
+  <si>
+    <t>Stayed here for one weekend night.  Check-in and check-out efficient with no problems.  Room was clean and bed comfortable.  Given a wheelchair-accessible king bed room, but maybe because they didn't have another room available at the time.  Closet has full-length mirror sliding doors.  Hotel a close drive to Rice Village Shopping area.</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r8378168-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8378168</t>
+  </si>
+  <si>
+    <t>08/08/2007</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for almost a week while on business. It was very convenient and the room was clean. The breakfast was wonderful and the staff were very helpful. There are several restaurant options close by as well as a Starbucks around the corner. They also have a complimentary shuttle which helped a great deal as well. I would stay there again!</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r6799563-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6799563</t>
+  </si>
+  <si>
+    <t>02/14/2007</t>
+  </si>
+  <si>
+    <t>Great find!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family for the weekend in three rooms. Everything was perfect. I travel a lot and find it especially hard to find clean, quiet comfortable rooms in big cities. This hotel stay was seamless. The hotel staff even returned an item to my mother that she left in her room by accident along with a thoughtful letter. My dad says "they are an establishment with a heart". The room was clean and extremely quiet. Breakfast buffet was great, lots of different things to choose from.Since this hotel is located just off the highway by a block or so and tucked away, there is no road noise. It's minutes from all the museums and galleries and many fine restaurants and shopping nearby, a great location. I will stay at this hotel every time I visit Houston from now on. They also offer senior discounts which my parents took advantage of. For comparably priced hotels in the area, this is by far the best one I've found. Definitely a good deal, great for business travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family for the weekend in three rooms. Everything was perfect. I travel a lot and find it especially hard to find clean, quiet comfortable rooms in big cities. This hotel stay was seamless. The hotel staff even returned an item to my mother that she left in her room by accident along with a thoughtful letter. My dad says "they are an establishment with a heart". The room was clean and extremely quiet. Breakfast buffet was great, lots of different things to choose from.Since this hotel is located just off the highway by a block or so and tucked away, there is no road noise. It's minutes from all the museums and galleries and many fine restaurants and shopping nearby, a great location. I will stay at this hotel every time I visit Houston from now on. They also offer senior discounts which my parents took advantage of. For comparably priced hotels in the area, this is by far the best one I've found. Definitely a good deal, great for business travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r5297711-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5297711</t>
+  </si>
+  <si>
+    <t>06/03/2006</t>
+  </si>
+  <si>
+    <t>Average Courtyard Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard West University in Houston over Memorial Day weekend.  Had first floor room directly next to the pool - which means unless you want people at the pool looking directly into your room you have to keep your curtains closed (pool open until 10pm).  So, request a room away from the pool if that's a concern.Staff was very friendly, though seemed a little short staffed.  Breakfast buffet was average (limited selection). Eggs were bland.  Service was adequate.Room was clean, but there was a distinct odor upon entering the room (sort of like stale cigarette smoke - had requested non-smoking room though).  Not really sure what it was... but I was too tired upon arrival to request a room change.  Guess I eventually got used to the odor.  Decent, though limited cable TV channel selection.  Didn't use the high-speed internet access, but used the public computer to print my boarding pass for my flight back and that was fine.Otherwise, property located in an industrial area, but very close (less than 1/2 mile) to nice restaurants, shopping, etc...Overall I would rate this Courtyard as average.  Nothing special and not in the best area of town.  Would probably look for another property next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard West University in Houston over Memorial Day weekend.  Had first floor room directly next to the pool - which means unless you want people at the pool looking directly into your room you have to keep your curtains closed (pool open until 10pm).  So, request a room away from the pool if that's a concern.Staff was very friendly, though seemed a little short staffed.  Breakfast buffet was average (limited selection). Eggs were bland.  Service was adequate.Room was clean, but there was a distinct odor upon entering the room (sort of like stale cigarette smoke - had requested non-smoking room though).  Not really sure what it was... but I was too tired upon arrival to request a room change.  Guess I eventually got used to the odor.  Decent, though limited cable TV channel selection.  Didn't use the high-speed internet access, but used the public computer to print my boarding pass for my flight back and that was fine.Otherwise, property located in an industrial area, but very close (less than 1/2 mile) to nice restaurants, shopping, etc...Overall I would rate this Courtyard as average.  Nothing special and not in the best area of town.  Would probably look for another property next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r5181841-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5181841</t>
+  </si>
+  <si>
+    <t>05/18/2006</t>
+  </si>
+  <si>
+    <t>Wonderful hotel, great staff!!!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here recently and we were most impressed.  I chose this hotel in the Houston area based on the reviews I found on this site.  I have to say I am very picky when it comes to the type of hotel my family stays in.  Usually, it is a 4 or 5 star full service hotel only; Marriott, Ritz-Carlton, Hyatt, etc.  I decided to take a chance on this Courtyard due to the fact that it was the closest one to our destination, the Museum of Natural Science and the hotel offered a shuttle service to and from the museum (in fact the shuttle service is available to take any guest going anywhere in a 3 mile range from the hotel).  I have to say the location was a bit odd as it is surrounded by some industry, but the hotel grounds are nice and Kirby street is only a couple blocks away with all the restaurants you could imagine. 
+As I am beyond obsessive about room cleanliness, I was a bit apprehensive about what I would find, and was happy to find the room was spotless as was the rest of the hotel. Beds were very comfortable, bathrooms very clean.  We had a great stay here.
+I was most inpressed with the staff however.  Of all the hotels I have stayed in, and the list is extensive, this staff was by far the kindest, most...My daughter and I stayed here recently and we were most impressed.  I chose this hotel in the Houston area based on the reviews I found on this site.  I have to say I am very picky when it comes to the type of hotel my family stays in.  Usually, it is a 4 or 5 star full service hotel only; Marriott, Ritz-Carlton, Hyatt, etc.  I decided to take a chance on this Courtyard due to the fact that it was the closest one to our destination, the Museum of Natural Science and the hotel offered a shuttle service to and from the museum (in fact the shuttle service is available to take any guest going anywhere in a 3 mile range from the hotel).  I have to say the location was a bit odd as it is surrounded by some industry, but the hotel grounds are nice and Kirby street is only a couple blocks away with all the restaurants you could imagine. As I am beyond obsessive about room cleanliness, I was a bit apprehensive about what I would find, and was happy to find the room was spotless as was the rest of the hotel. Beds were very comfortable, bathrooms very clean.  We had a great stay here.I was most inpressed with the staff however.  Of all the hotels I have stayed in, and the list is extensive, this staff was by far the kindest, most helpful and genuinly caring staff I have EVER run across.  Always had a smile on their faces and couldn't do enough for their guests. For instance: I called down to the front desk about 9PM to ask if they served flavored coffee in the hotel.  The front desk attendant said they had some coffee in the lobby, but it wasn't flavored.  She stated there was a Starbucks nearby and they would be glad to call for the shuttle and have it drive me to Starbucks where it would wait for me to order my coffee and bring me back or it would go with my order and pick it up for me, I wouldn't even have to leave the hotel room.  That level of service amazed me, but it got better when I decided to just go down to the lobby and get a cup of coffee myself ( they offed to bring it up to me!).  I asked for some real cream and she said they would have it waiting for me (again stating they would be happy to bring it up to me).  As I approached the front desk, there was a staff member, holding out a china cup, saucer, and spoon for me and another staff member took me to the kitchen where they got fresh cream and sugar (in individual glass containers) for me and put everything on a tray for me to carry to my room, again stating they would be happy to carry it up for me if I wished.  What wonderful service!!I would definately stay in this hotel again and, for the first time ever, I will be writting corporate Marriott a letter about the wonderful staff at the West university Houston Couryard.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here recently and we were most impressed.  I chose this hotel in the Houston area based on the reviews I found on this site.  I have to say I am very picky when it comes to the type of hotel my family stays in.  Usually, it is a 4 or 5 star full service hotel only; Marriott, Ritz-Carlton, Hyatt, etc.  I decided to take a chance on this Courtyard due to the fact that it was the closest one to our destination, the Museum of Natural Science and the hotel offered a shuttle service to and from the museum (in fact the shuttle service is available to take any guest going anywhere in a 3 mile range from the hotel).  I have to say the location was a bit odd as it is surrounded by some industry, but the hotel grounds are nice and Kirby street is only a couple blocks away with all the restaurants you could imagine. 
+As I am beyond obsessive about room cleanliness, I was a bit apprehensive about what I would find, and was happy to find the room was spotless as was the rest of the hotel. Beds were very comfortable, bathrooms very clean.  We had a great stay here.
+I was most inpressed with the staff however.  Of all the hotels I have stayed in, and the list is extensive, this staff was by far the kindest, most...My daughter and I stayed here recently and we were most impressed.  I chose this hotel in the Houston area based on the reviews I found on this site.  I have to say I am very picky when it comes to the type of hotel my family stays in.  Usually, it is a 4 or 5 star full service hotel only; Marriott, Ritz-Carlton, Hyatt, etc.  I decided to take a chance on this Courtyard due to the fact that it was the closest one to our destination, the Museum of Natural Science and the hotel offered a shuttle service to and from the museum (in fact the shuttle service is available to take any guest going anywhere in a 3 mile range from the hotel).  I have to say the location was a bit odd as it is surrounded by some industry, but the hotel grounds are nice and Kirby street is only a couple blocks away with all the restaurants you could imagine. As I am beyond obsessive about room cleanliness, I was a bit apprehensive about what I would find, and was happy to find the room was spotless as was the rest of the hotel. Beds were very comfortable, bathrooms very clean.  We had a great stay here.I was most inpressed with the staff however.  Of all the hotels I have stayed in, and the list is extensive, this staff was by far the kindest, most helpful and genuinly caring staff I have EVER run across.  Always had a smile on their faces and couldn't do enough for their guests. For instance: I called down to the front desk about 9PM to ask if they served flavored coffee in the hotel.  The front desk attendant said they had some coffee in the lobby, but it wasn't flavored.  She stated there was a Starbucks nearby and they would be glad to call for the shuttle and have it drive me to Starbucks where it would wait for me to order my coffee and bring me back or it would go with my order and pick it up for me, I wouldn't even have to leave the hotel room.  That level of service amazed me, but it got better when I decided to just go down to the lobby and get a cup of coffee myself ( they offed to bring it up to me!).  I asked for some real cream and she said they would have it waiting for me (again stating they would be happy to bring it up to me).  As I approached the front desk, there was a staff member, holding out a china cup, saucer, and spoon for me and another staff member took me to the kitchen where they got fresh cream and sugar (in individual glass containers) for me and put everything on a tray for me to carry to my room, again stating they would be happy to carry it up for me if I wished.  What wonderful service!!I would definately stay in this hotel again and, for the first time ever, I will be writting corporate Marriott a letter about the wonderful staff at the West university Houston Couryard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r4985270-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4985270</t>
+  </si>
+  <si>
+    <t>04/17/2006</t>
+  </si>
+  <si>
+    <t>Best Courtyard Ever</t>
+  </si>
+  <si>
+    <t>This Courtyard By Marriott was one of the nicest I have stayed in.  The staff was attentive and friendly, the breakfast buffet was hot, fresh and reasonably priced.  The rooms and public areas were clean and tastfully decorated. There were two small problems but they didn't put a damper on our stay.  The first was that, as others have said, the hotel is poorly marked from the road and a little difficult to spot at first.  The second was that the water pressure in the toilets was not always full-power and made it sometimes difficult to flush.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d288460-r2886042-Courtyard_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2886042</t>
+  </si>
+  <si>
+    <t>12/15/2004</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Rooms were nicer than the Marriotts I've stayed in this year.  Employees were pleasant, well-trained, and helpful.  If you are looking for a clean, tastefully decorated, well-maintained hotel room and do not need a full-service hotel (concierge, etc.), then this is a great choice.Amazing for the price!  Can't recommend highly enough.After several years of visiting a son at Rice University, I finally found the place to stay.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2733,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2765,6493 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J33" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>310</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>311</v>
+      </c>
+      <c r="X34" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>320</v>
+      </c>
+      <c r="J35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L35" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" t="s">
+        <v>366</v>
+      </c>
+      <c r="K41" t="s">
+        <v>367</v>
+      </c>
+      <c r="L41" t="s">
+        <v>368</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>310</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" t="s">
+        <v>394</v>
+      </c>
+      <c r="K45" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" t="s">
+        <v>396</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>310</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>397</v>
+      </c>
+      <c r="X45" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>402</v>
+      </c>
+      <c r="K46" t="s">
+        <v>403</v>
+      </c>
+      <c r="L46" t="s">
+        <v>404</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>397</v>
+      </c>
+      <c r="X46" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>407</v>
+      </c>
+      <c r="J47" t="s">
+        <v>408</v>
+      </c>
+      <c r="K47" t="s">
+        <v>409</v>
+      </c>
+      <c r="L47" t="s">
+        <v>410</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>411</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>412</v>
+      </c>
+      <c r="X47" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>416</v>
+      </c>
+      <c r="J48" t="s">
+        <v>417</v>
+      </c>
+      <c r="K48" t="s">
+        <v>418</v>
+      </c>
+      <c r="L48" t="s">
+        <v>419</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>420</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>421</v>
+      </c>
+      <c r="X48" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>424</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>425</v>
+      </c>
+      <c r="J49" t="s">
+        <v>426</v>
+      </c>
+      <c r="K49" t="s">
+        <v>427</v>
+      </c>
+      <c r="L49" t="s">
+        <v>428</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>429</v>
+      </c>
+      <c r="X49" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>433</v>
+      </c>
+      <c r="J50" t="s">
+        <v>434</v>
+      </c>
+      <c r="K50" t="s">
+        <v>435</v>
+      </c>
+      <c r="L50" t="s">
+        <v>436</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>420</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>437</v>
+      </c>
+      <c r="X50" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>445</v>
+      </c>
+      <c r="X51" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>453</v>
+      </c>
+      <c r="X52" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" t="s">
+        <v>458</v>
+      </c>
+      <c r="K53" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" t="s">
+        <v>460</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>462</v>
+      </c>
+      <c r="J54" t="s">
+        <v>463</v>
+      </c>
+      <c r="K54" t="s">
+        <v>464</v>
+      </c>
+      <c r="L54" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>466</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>467</v>
+      </c>
+      <c r="X54" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" t="s">
+        <v>472</v>
+      </c>
+      <c r="K55" t="s">
+        <v>473</v>
+      </c>
+      <c r="L55" t="s">
+        <v>474</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>466</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>475</v>
+      </c>
+      <c r="X55" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>479</v>
+      </c>
+      <c r="J56" t="s">
+        <v>480</v>
+      </c>
+      <c r="K56" t="s">
+        <v>481</v>
+      </c>
+      <c r="L56" t="s">
+        <v>482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>483</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>485</v>
+      </c>
+      <c r="J57" t="s">
+        <v>486</v>
+      </c>
+      <c r="K57" t="s">
+        <v>487</v>
+      </c>
+      <c r="L57" t="s">
+        <v>488</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>489</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>491</v>
+      </c>
+      <c r="J58" t="s">
+        <v>492</v>
+      </c>
+      <c r="K58" t="s">
+        <v>493</v>
+      </c>
+      <c r="L58" t="s">
+        <v>494</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>489</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>495</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>496</v>
+      </c>
+      <c r="J59" t="s">
+        <v>497</v>
+      </c>
+      <c r="K59" t="s">
+        <v>498</v>
+      </c>
+      <c r="L59" t="s">
+        <v>499</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>501</v>
+      </c>
+      <c r="X59" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>504</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>505</v>
+      </c>
+      <c r="J60" t="s">
+        <v>506</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>483</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>501</v>
+      </c>
+      <c r="X60" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>517</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>518</v>
+      </c>
+      <c r="J62" t="s">
+        <v>519</v>
+      </c>
+      <c r="K62" t="s">
+        <v>520</v>
+      </c>
+      <c r="L62" t="s">
+        <v>521</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>522</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>522</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>528</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>529</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>534</v>
+      </c>
+      <c r="J65" t="s">
+        <v>535</v>
+      </c>
+      <c r="K65" t="s">
+        <v>536</v>
+      </c>
+      <c r="L65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>538</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s">
+        <v>543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>544</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>547</v>
+      </c>
+      <c r="J67" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" t="s">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s">
+        <v>550</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>551</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>557</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>559</v>
+      </c>
+      <c r="J69" t="s">
+        <v>560</v>
+      </c>
+      <c r="K69" t="s">
+        <v>561</v>
+      </c>
+      <c r="L69" t="s">
+        <v>562</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>557</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>568</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s">
+        <v>578</v>
+      </c>
+      <c r="L72" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>580</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>581</v>
+      </c>
+      <c r="J73" t="s">
+        <v>582</v>
+      </c>
+      <c r="K73" t="s">
+        <v>583</v>
+      </c>
+      <c r="L73" t="s">
+        <v>584</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>586</v>
+      </c>
+      <c r="J74" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" t="s">
+        <v>588</v>
+      </c>
+      <c r="L74" t="s">
+        <v>589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>590</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>591</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>592</v>
+      </c>
+      <c r="J75" t="s">
+        <v>593</v>
+      </c>
+      <c r="K75" t="s">
+        <v>594</v>
+      </c>
+      <c r="L75" t="s">
+        <v>595</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>596</v>
+      </c>
+      <c r="O75" t="s">
+        <v>190</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>607</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>614</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>614</v>
+      </c>
+      <c r="O79" t="s">
+        <v>190</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>621</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>622</v>
+      </c>
+      <c r="J80" t="s">
+        <v>623</v>
+      </c>
+      <c r="K80" t="s">
+        <v>624</v>
+      </c>
+      <c r="L80" t="s">
+        <v>625</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>626</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>628</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>629</v>
+      </c>
+      <c r="J81" t="s">
+        <v>630</v>
+      </c>
+      <c r="K81" t="s">
+        <v>631</v>
+      </c>
+      <c r="L81" t="s">
+        <v>632</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>633</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>635</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" t="s">
+        <v>637</v>
+      </c>
+      <c r="K82" t="s">
+        <v>638</v>
+      </c>
+      <c r="L82" t="s">
+        <v>639</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>626</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>641</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>644</v>
+      </c>
+      <c r="L83" t="s">
+        <v>645</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>646</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>652</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>653</v>
+      </c>
+      <c r="J85" t="s">
+        <v>654</v>
+      </c>
+      <c r="K85" t="s">
+        <v>655</v>
+      </c>
+      <c r="L85" t="s">
+        <v>656</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>657</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>659</v>
+      </c>
+      <c r="J86" t="s">
+        <v>660</v>
+      </c>
+      <c r="K86" t="s">
+        <v>661</v>
+      </c>
+      <c r="L86" t="s">
+        <v>662</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>663</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>664</v>
+      </c>
+      <c r="X86" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>667</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>668</v>
+      </c>
+      <c r="J87" t="s">
+        <v>669</v>
+      </c>
+      <c r="K87" t="s">
+        <v>670</v>
+      </c>
+      <c r="L87" t="s">
+        <v>671</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>672</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>664</v>
+      </c>
+      <c r="X87" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>674</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>675</v>
+      </c>
+      <c r="J88" t="s">
+        <v>676</v>
+      </c>
+      <c r="K88" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" t="s">
+        <v>678</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>679</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>680</v>
+      </c>
+      <c r="X88" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>683</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>684</v>
+      </c>
+      <c r="J89" t="s">
+        <v>685</v>
+      </c>
+      <c r="K89" t="s">
+        <v>686</v>
+      </c>
+      <c r="L89" t="s">
+        <v>687</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>688</v>
+      </c>
+      <c r="O89" t="s">
+        <v>310</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>690</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>691</v>
+      </c>
+      <c r="J90" t="s">
+        <v>692</v>
+      </c>
+      <c r="K90" t="s">
+        <v>693</v>
+      </c>
+      <c r="L90" t="s">
+        <v>694</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>695</v>
+      </c>
+      <c r="O90" t="s">
+        <v>310</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>697</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>698</v>
+      </c>
+      <c r="J91" t="s">
+        <v>699</v>
+      </c>
+      <c r="K91" t="s">
+        <v>700</v>
+      </c>
+      <c r="L91" t="s">
+        <v>701</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>702</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>708</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>709</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>710</v>
+      </c>
+      <c r="J93" t="s">
+        <v>711</v>
+      </c>
+      <c r="K93" t="s">
+        <v>712</v>
+      </c>
+      <c r="L93" t="s">
+        <v>713</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>714</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>716</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>717</v>
+      </c>
+      <c r="J94" t="s">
+        <v>718</v>
+      </c>
+      <c r="K94" t="s">
+        <v>719</v>
+      </c>
+      <c r="L94" t="s">
+        <v>720</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>721</v>
+      </c>
+      <c r="O94" t="s">
+        <v>190</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>722</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>723</v>
+      </c>
+      <c r="J95" t="s">
+        <v>724</v>
+      </c>
+      <c r="K95" t="s">
+        <v>725</v>
+      </c>
+      <c r="L95" t="s">
+        <v>726</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>727</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>728</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>729</v>
+      </c>
+      <c r="J96" t="s">
+        <v>730</v>
+      </c>
+      <c r="K96" t="s">
+        <v>566</v>
+      </c>
+      <c r="L96" t="s">
+        <v>731</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>732</v>
+      </c>
+      <c r="O96" t="s">
+        <v>63</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>733</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>734</v>
+      </c>
+      <c r="J97" t="s">
+        <v>735</v>
+      </c>
+      <c r="K97" t="s">
+        <v>736</v>
+      </c>
+      <c r="L97" t="s">
+        <v>737</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>738</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>740</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>741</v>
+      </c>
+      <c r="J98" t="s">
+        <v>742</v>
+      </c>
+      <c r="K98" t="s">
+        <v>743</v>
+      </c>
+      <c r="L98" t="s">
+        <v>744</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>746</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>747</v>
+      </c>
+      <c r="J99" t="s">
+        <v>748</v>
+      </c>
+      <c r="K99" t="s">
+        <v>749</v>
+      </c>
+      <c r="L99" t="s">
+        <v>750</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>752</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>753</v>
+      </c>
+      <c r="J100" t="s">
+        <v>754</v>
+      </c>
+      <c r="K100" t="s">
+        <v>755</v>
+      </c>
+      <c r="L100" t="s">
+        <v>756</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>52110</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>757</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>758</v>
+      </c>
+      <c r="J101" t="s">
+        <v>759</v>
+      </c>
+      <c r="K101" t="s">
+        <v>760</v>
+      </c>
+      <c r="L101" t="s">
+        <v>761</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
